--- a/SubmissionDocs/Project GANTT Chart_draft.xlsx
+++ b/SubmissionDocs/Project GANTT Chart_draft.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84062207-6E79-934E-AB79-F1C663222ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DB0EAD-883F-9345-89BD-C3868C9B79AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-6540" windowWidth="37420" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Code Demo Video</t>
+  </si>
+  <si>
+    <t>Í</t>
   </si>
 </sst>
 </file>
@@ -1155,20 +1158,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="31" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="31" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="31" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="34" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,6 +1290,18 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="31" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="31" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="31" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1357,7 +1360,7 @@
     <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -1391,31 +1394,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1440,13 +1424,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -1458,41 +1435,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="1" tint="0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1511,7 +1454,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
       <border>
@@ -1522,7 +1465,37 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1634,15 +1607,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="totalRow" dxfId="24"/>
-      <tableStyleElement type="firstColumn" dxfId="23"/>
-      <tableStyleElement type="lastColumn" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="lastColumn" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2057,11 +2030,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BY33"/>
+  <dimension ref="A1:CT33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CF13" sqref="CF13"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CV1" sqref="CV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2080,10 +2053,11 @@
     <col min="67" max="70" width="2" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="77" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="94" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="98" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2142,7 @@
       <c r="BX1" s="25"/>
       <c r="BY1" s="25"/>
     </row>
-    <row r="2" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -2253,7 +2227,7 @@
       <c r="BX2" s="25"/>
       <c r="BY2" s="25"/>
     </row>
-    <row r="3" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
@@ -2261,11 +2235,11 @@
         <v>37</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="32">
+      <c r="D3" s="80">
         <f>DATE(2022,6,8)</f>
         <v>44720</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -2339,712 +2313,910 @@
       <c r="BX3" s="25"/>
       <c r="BY3" s="25"/>
     </row>
-    <row r="4" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="33">
+      <c r="D4" s="32">
         <v>1</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
-      <c r="H4" s="34">
+      <c r="H4" s="77">
         <f>H5</f>
         <v>44718</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="34">
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="77">
         <f>O5</f>
         <v>44725</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="34">
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="77">
         <f>V5</f>
         <v>44732</v>
       </c>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="34">
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="77">
         <f>AC5</f>
         <v>44739</v>
       </c>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="34">
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="77">
         <f>AJ5</f>
         <v>44746</v>
       </c>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="34">
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="79"/>
+      <c r="AQ4" s="77">
         <f>AQ5</f>
         <v>44753</v>
       </c>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="34">
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="79"/>
+      <c r="AX4" s="77">
         <f>AX5</f>
         <v>44760</v>
       </c>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="34">
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="79"/>
+      <c r="BE4" s="77">
         <f>BE5</f>
         <v>44767</v>
       </c>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="34">
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="78"/>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="79"/>
+      <c r="BL4" s="77">
         <f>BL5</f>
         <v>44774</v>
       </c>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="34">
+      <c r="BM4" s="78"/>
+      <c r="BN4" s="78"/>
+      <c r="BO4" s="78"/>
+      <c r="BP4" s="78"/>
+      <c r="BQ4" s="78"/>
+      <c r="BR4" s="79"/>
+      <c r="BS4" s="77">
         <f>BS5</f>
         <v>44781</v>
       </c>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="36"/>
+      <c r="BT4" s="78"/>
+      <c r="BU4" s="78"/>
+      <c r="BV4" s="78"/>
+      <c r="BW4" s="78"/>
+      <c r="BX4" s="78"/>
+      <c r="BY4" s="79"/>
+      <c r="BZ4" s="77">
+        <f>BZ5</f>
+        <v>44788</v>
+      </c>
+      <c r="CA4" s="78"/>
+      <c r="CB4" s="78"/>
+      <c r="CC4" s="78"/>
+      <c r="CD4" s="78"/>
+      <c r="CE4" s="78"/>
+      <c r="CF4" s="79"/>
+      <c r="CG4" s="77">
+        <f>CG5</f>
+        <v>44795</v>
+      </c>
+      <c r="CH4" s="78"/>
+      <c r="CI4" s="78"/>
+      <c r="CJ4" s="78"/>
+      <c r="CK4" s="78"/>
+      <c r="CL4" s="78"/>
+      <c r="CM4" s="79"/>
+      <c r="CN4" s="77">
+        <f>CN5</f>
+        <v>44802</v>
+      </c>
+      <c r="CO4" s="78"/>
+      <c r="CP4" s="78"/>
+      <c r="CQ4" s="78"/>
+      <c r="CR4" s="78"/>
+      <c r="CS4" s="78"/>
+      <c r="CT4" s="79"/>
     </row>
-    <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="38">
+      <c r="H5" s="34">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44718</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="35">
         <f>H5+1</f>
         <v>44719</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="35">
         <f t="shared" ref="J5:AW5" si="0">I5+1</f>
         <v>44720</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="35">
         <f t="shared" si="0"/>
         <v>44721</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="35">
         <f t="shared" si="0"/>
         <v>44722</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="35">
         <f t="shared" si="0"/>
         <v>44723</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="36">
         <f t="shared" si="0"/>
         <v>44724</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="34">
         <f>N5+1</f>
         <v>44725</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="35">
         <f>O5+1</f>
         <v>44726</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="35">
         <f t="shared" si="0"/>
         <v>44727</v>
       </c>
-      <c r="R5" s="39">
+      <c r="R5" s="35">
         <f t="shared" si="0"/>
         <v>44728</v>
       </c>
-      <c r="S5" s="39">
+      <c r="S5" s="35">
         <f t="shared" si="0"/>
         <v>44729</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="35">
         <f t="shared" si="0"/>
         <v>44730</v>
       </c>
-      <c r="U5" s="40">
+      <c r="U5" s="36">
         <f t="shared" si="0"/>
         <v>44731</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="34">
         <f>U5+1</f>
         <v>44732</v>
       </c>
-      <c r="W5" s="39">
+      <c r="W5" s="35">
         <f>V5+1</f>
         <v>44733</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="35">
         <f t="shared" si="0"/>
         <v>44734</v>
       </c>
-      <c r="Y5" s="39">
+      <c r="Y5" s="35">
         <f t="shared" si="0"/>
         <v>44735</v>
       </c>
-      <c r="Z5" s="39">
+      <c r="Z5" s="35">
         <f t="shared" si="0"/>
         <v>44736</v>
       </c>
-      <c r="AA5" s="39">
+      <c r="AA5" s="35">
         <f t="shared" si="0"/>
         <v>44737</v>
       </c>
-      <c r="AB5" s="40">
+      <c r="AB5" s="36">
         <f t="shared" si="0"/>
         <v>44738</v>
       </c>
-      <c r="AC5" s="38">
+      <c r="AC5" s="34">
         <f>AB5+1</f>
         <v>44739</v>
       </c>
-      <c r="AD5" s="39">
+      <c r="AD5" s="35">
         <f>AC5+1</f>
         <v>44740</v>
       </c>
-      <c r="AE5" s="39">
+      <c r="AE5" s="35">
         <f t="shared" si="0"/>
         <v>44741</v>
       </c>
-      <c r="AF5" s="39">
+      <c r="AF5" s="35">
         <f t="shared" si="0"/>
         <v>44742</v>
       </c>
-      <c r="AG5" s="39">
+      <c r="AG5" s="35">
         <f t="shared" si="0"/>
         <v>44743</v>
       </c>
-      <c r="AH5" s="39">
+      <c r="AH5" s="35">
         <f t="shared" si="0"/>
         <v>44744</v>
       </c>
-      <c r="AI5" s="40">
+      <c r="AI5" s="36">
         <f t="shared" si="0"/>
         <v>44745</v>
       </c>
-      <c r="AJ5" s="38">
+      <c r="AJ5" s="34">
         <f>AI5+1</f>
         <v>44746</v>
       </c>
-      <c r="AK5" s="39">
+      <c r="AK5" s="35">
         <f>AJ5+1</f>
         <v>44747</v>
       </c>
-      <c r="AL5" s="39">
+      <c r="AL5" s="35">
         <f t="shared" si="0"/>
         <v>44748</v>
       </c>
-      <c r="AM5" s="39">
+      <c r="AM5" s="35">
         <f t="shared" si="0"/>
         <v>44749</v>
       </c>
-      <c r="AN5" s="39">
+      <c r="AN5" s="35">
         <f t="shared" si="0"/>
         <v>44750</v>
       </c>
-      <c r="AO5" s="39">
+      <c r="AO5" s="35">
         <f t="shared" si="0"/>
         <v>44751</v>
       </c>
-      <c r="AP5" s="40">
+      <c r="AP5" s="36">
         <f t="shared" si="0"/>
         <v>44752</v>
       </c>
-      <c r="AQ5" s="38">
+      <c r="AQ5" s="34">
         <f>AP5+1</f>
         <v>44753</v>
       </c>
-      <c r="AR5" s="39">
+      <c r="AR5" s="35">
         <f>AQ5+1</f>
         <v>44754</v>
       </c>
-      <c r="AS5" s="39">
+      <c r="AS5" s="35">
         <f t="shared" si="0"/>
         <v>44755</v>
       </c>
-      <c r="AT5" s="39">
+      <c r="AT5" s="35">
         <f t="shared" si="0"/>
         <v>44756</v>
       </c>
-      <c r="AU5" s="39">
+      <c r="AU5" s="35">
         <f t="shared" si="0"/>
         <v>44757</v>
       </c>
-      <c r="AV5" s="39">
+      <c r="AV5" s="35">
         <f t="shared" si="0"/>
         <v>44758</v>
       </c>
-      <c r="AW5" s="40">
+      <c r="AW5" s="36">
         <f t="shared" si="0"/>
         <v>44759</v>
       </c>
-      <c r="AX5" s="38">
+      <c r="AX5" s="34">
         <f>AW5+1</f>
         <v>44760</v>
       </c>
-      <c r="AY5" s="39">
+      <c r="AY5" s="35">
         <f>AX5+1</f>
         <v>44761</v>
       </c>
-      <c r="AZ5" s="39">
+      <c r="AZ5" s="35">
         <f t="shared" ref="AZ5:BD5" si="1">AY5+1</f>
         <v>44762</v>
       </c>
-      <c r="BA5" s="39">
+      <c r="BA5" s="35">
         <f t="shared" si="1"/>
         <v>44763</v>
       </c>
-      <c r="BB5" s="39">
+      <c r="BB5" s="35">
         <f t="shared" si="1"/>
         <v>44764</v>
       </c>
-      <c r="BC5" s="39">
+      <c r="BC5" s="35">
         <f t="shared" si="1"/>
         <v>44765</v>
       </c>
-      <c r="BD5" s="40">
+      <c r="BD5" s="36">
         <f t="shared" si="1"/>
         <v>44766</v>
       </c>
-      <c r="BE5" s="38">
+      <c r="BE5" s="34">
         <f>BD5+1</f>
         <v>44767</v>
       </c>
-      <c r="BF5" s="39">
+      <c r="BF5" s="35">
         <f>BE5+1</f>
         <v>44768</v>
       </c>
-      <c r="BG5" s="39">
+      <c r="BG5" s="35">
         <f t="shared" ref="BG5:BK5" si="2">BF5+1</f>
         <v>44769</v>
       </c>
-      <c r="BH5" s="39">
+      <c r="BH5" s="35">
         <f t="shared" si="2"/>
         <v>44770</v>
       </c>
-      <c r="BI5" s="39">
+      <c r="BI5" s="35">
         <f t="shared" si="2"/>
         <v>44771</v>
       </c>
-      <c r="BJ5" s="39">
+      <c r="BJ5" s="35">
         <f t="shared" si="2"/>
         <v>44772</v>
       </c>
-      <c r="BK5" s="40">
+      <c r="BK5" s="36">
         <f t="shared" si="2"/>
         <v>44773</v>
       </c>
-      <c r="BL5" s="38">
+      <c r="BL5" s="34">
         <f>BK5+1</f>
         <v>44774</v>
       </c>
-      <c r="BM5" s="39">
+      <c r="BM5" s="35">
         <f>BL5+1</f>
         <v>44775</v>
       </c>
-      <c r="BN5" s="39">
+      <c r="BN5" s="35">
         <f t="shared" ref="BN5" si="3">BM5+1</f>
         <v>44776</v>
       </c>
-      <c r="BO5" s="39">
+      <c r="BO5" s="35">
         <f t="shared" ref="BO5" si="4">BN5+1</f>
         <v>44777</v>
       </c>
-      <c r="BP5" s="39">
+      <c r="BP5" s="35">
         <f t="shared" ref="BP5" si="5">BO5+1</f>
         <v>44778</v>
       </c>
-      <c r="BQ5" s="39">
+      <c r="BQ5" s="35">
         <f t="shared" ref="BQ5" si="6">BP5+1</f>
         <v>44779</v>
       </c>
-      <c r="BR5" s="40">
+      <c r="BR5" s="36">
         <f t="shared" ref="BR5" si="7">BQ5+1</f>
         <v>44780</v>
       </c>
-      <c r="BS5" s="38">
+      <c r="BS5" s="34">
         <f>BR5+1</f>
         <v>44781</v>
       </c>
-      <c r="BT5" s="39">
+      <c r="BT5" s="35">
         <f>BS5+1</f>
         <v>44782</v>
       </c>
-      <c r="BU5" s="39">
+      <c r="BU5" s="35">
         <f t="shared" ref="BU5" si="8">BT5+1</f>
         <v>44783</v>
       </c>
-      <c r="BV5" s="39">
+      <c r="BV5" s="35">
         <f t="shared" ref="BV5" si="9">BU5+1</f>
         <v>44784</v>
       </c>
-      <c r="BW5" s="39">
+      <c r="BW5" s="35">
         <f t="shared" ref="BW5" si="10">BV5+1</f>
         <v>44785</v>
       </c>
-      <c r="BX5" s="39">
+      <c r="BX5" s="35">
         <f t="shared" ref="BX5" si="11">BW5+1</f>
         <v>44786</v>
       </c>
-      <c r="BY5" s="40">
+      <c r="BY5" s="36">
         <f t="shared" ref="BY5" si="12">BX5+1</f>
         <v>44787</v>
       </c>
+      <c r="BZ5" s="34">
+        <f>BY5+1</f>
+        <v>44788</v>
+      </c>
+      <c r="CA5" s="35">
+        <f>BZ5+1</f>
+        <v>44789</v>
+      </c>
+      <c r="CB5" s="35">
+        <f t="shared" ref="CB5" si="13">CA5+1</f>
+        <v>44790</v>
+      </c>
+      <c r="CC5" s="35">
+        <f t="shared" ref="CC5" si="14">CB5+1</f>
+        <v>44791</v>
+      </c>
+      <c r="CD5" s="35">
+        <f t="shared" ref="CD5" si="15">CC5+1</f>
+        <v>44792</v>
+      </c>
+      <c r="CE5" s="35">
+        <f t="shared" ref="CE5" si="16">CD5+1</f>
+        <v>44793</v>
+      </c>
+      <c r="CF5" s="36">
+        <f t="shared" ref="CF5" si="17">CE5+1</f>
+        <v>44794</v>
+      </c>
+      <c r="CG5" s="34">
+        <f>CF5+1</f>
+        <v>44795</v>
+      </c>
+      <c r="CH5" s="35">
+        <f>CG5+1</f>
+        <v>44796</v>
+      </c>
+      <c r="CI5" s="35">
+        <f t="shared" ref="CI5" si="18">CH5+1</f>
+        <v>44797</v>
+      </c>
+      <c r="CJ5" s="35">
+        <f t="shared" ref="CJ5" si="19">CI5+1</f>
+        <v>44798</v>
+      </c>
+      <c r="CK5" s="35">
+        <f t="shared" ref="CK5" si="20">CJ5+1</f>
+        <v>44799</v>
+      </c>
+      <c r="CL5" s="35">
+        <f t="shared" ref="CL5" si="21">CK5+1</f>
+        <v>44800</v>
+      </c>
+      <c r="CM5" s="36">
+        <f t="shared" ref="CM5" si="22">CL5+1</f>
+        <v>44801</v>
+      </c>
+      <c r="CN5" s="34">
+        <f>CM5+1</f>
+        <v>44802</v>
+      </c>
+      <c r="CO5" s="35">
+        <f>CN5+1</f>
+        <v>44803</v>
+      </c>
+      <c r="CP5" s="35">
+        <f t="shared" ref="CP5" si="23">CO5+1</f>
+        <v>44804</v>
+      </c>
+      <c r="CQ5" s="35">
+        <f t="shared" ref="CQ5" si="24">CP5+1</f>
+        <v>44805</v>
+      </c>
+      <c r="CR5" s="35">
+        <f t="shared" ref="CR5" si="25">CQ5+1</f>
+        <v>44806</v>
+      </c>
+      <c r="CS5" s="35">
+        <f t="shared" ref="CS5" si="26">CR5+1</f>
+        <v>44807</v>
+      </c>
+      <c r="CT5" s="36">
+        <f t="shared" ref="CT5" si="27">CS5+1</f>
+        <v>44808</v>
+      </c>
     </row>
-    <row r="6" spans="1:77" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:98" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="43" t="str">
-        <f t="shared" ref="H6" si="13">LEFT(TEXT(H5,"ddd"),1)</f>
+      <c r="H6" s="39" t="str">
+        <f t="shared" ref="H6" si="28">LEFT(TEXT(H5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="I6" s="43" t="str">
-        <f t="shared" ref="I6:AQ6" si="14">LEFT(TEXT(I5,"ddd"),1)</f>
+      <c r="I6" s="39" t="str">
+        <f t="shared" ref="I6:AQ6" si="29">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="J6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="J6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>W</v>
       </c>
-      <c r="K6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="K6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>T</v>
       </c>
-      <c r="L6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="L6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>F</v>
       </c>
-      <c r="M6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="M6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>S</v>
       </c>
-      <c r="N6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="N6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>S</v>
       </c>
-      <c r="O6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="O6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>M</v>
       </c>
-      <c r="P6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="P6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>T</v>
       </c>
-      <c r="Q6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="Q6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>W</v>
       </c>
-      <c r="R6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="R6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>T</v>
       </c>
-      <c r="S6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="S6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>F</v>
       </c>
-      <c r="T6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="T6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>S</v>
       </c>
-      <c r="U6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="U6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>S</v>
       </c>
-      <c r="V6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="V6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>M</v>
       </c>
-      <c r="W6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="W6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>T</v>
       </c>
-      <c r="X6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="X6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>W</v>
       </c>
-      <c r="Y6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="Y6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>T</v>
       </c>
-      <c r="Z6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="Z6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>F</v>
       </c>
-      <c r="AA6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AA6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>S</v>
       </c>
-      <c r="AB6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AB6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AC6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>M</v>
       </c>
-      <c r="AD6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AD6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>T</v>
       </c>
-      <c r="AE6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AE6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>W</v>
       </c>
-      <c r="AF6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AF6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>T</v>
       </c>
-      <c r="AG6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AG6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>F</v>
       </c>
-      <c r="AH6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AH6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>S</v>
       </c>
-      <c r="AI6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AI6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AJ6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>M</v>
       </c>
-      <c r="AK6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AK6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>T</v>
       </c>
-      <c r="AL6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AL6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>W</v>
       </c>
-      <c r="AM6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AM6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>T</v>
       </c>
-      <c r="AN6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AN6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>F</v>
       </c>
-      <c r="AO6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AO6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>S</v>
       </c>
-      <c r="AP6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AP6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="43" t="str">
-        <f t="shared" si="14"/>
+      <c r="AQ6" s="39" t="str">
+        <f t="shared" si="29"/>
         <v>M</v>
       </c>
-      <c r="AR6" s="43" t="str">
-        <f t="shared" ref="AR6:BK6" si="15">LEFT(TEXT(AR5,"ddd"),1)</f>
+      <c r="AR6" s="39" t="str">
+        <f t="shared" ref="AR6:BK6" si="30">LEFT(TEXT(AR5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="AS6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="AS6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>W</v>
       </c>
-      <c r="AT6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="AT6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>T</v>
       </c>
-      <c r="AU6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="AU6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>F</v>
       </c>
-      <c r="AV6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="AV6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>S</v>
       </c>
-      <c r="AW6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="AW6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>S</v>
       </c>
-      <c r="AX6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="AX6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>M</v>
       </c>
-      <c r="AY6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="AY6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>T</v>
       </c>
-      <c r="AZ6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="AZ6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>W</v>
       </c>
-      <c r="BA6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="BA6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>T</v>
       </c>
-      <c r="BB6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="BB6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>F</v>
       </c>
-      <c r="BC6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="BC6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>S</v>
       </c>
-      <c r="BD6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="BD6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="BE6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>M</v>
       </c>
-      <c r="BF6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="BF6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>T</v>
       </c>
-      <c r="BG6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="BG6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>W</v>
       </c>
-      <c r="BH6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="BH6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>T</v>
       </c>
-      <c r="BI6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="BI6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>F</v>
       </c>
-      <c r="BJ6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="BJ6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>S</v>
       </c>
-      <c r="BK6" s="43" t="str">
-        <f t="shared" si="15"/>
+      <c r="BK6" s="39" t="str">
+        <f t="shared" si="30"/>
         <v>S</v>
       </c>
-      <c r="BL6" s="43" t="str">
-        <f t="shared" ref="BL6:BY6" si="16">LEFT(TEXT(BL5,"ddd"),1)</f>
+      <c r="BL6" s="39" t="str">
+        <f t="shared" ref="BL6:BY6" si="31">LEFT(TEXT(BL5,"ddd"),1)</f>
         <v>M</v>
       </c>
-      <c r="BM6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BM6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>T</v>
       </c>
-      <c r="BN6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BN6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>W</v>
       </c>
-      <c r="BO6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BO6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>T</v>
       </c>
-      <c r="BP6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BP6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>F</v>
       </c>
-      <c r="BQ6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BQ6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>S</v>
       </c>
-      <c r="BR6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BR6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>S</v>
       </c>
-      <c r="BS6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BS6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>M</v>
       </c>
-      <c r="BT6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BT6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>T</v>
       </c>
-      <c r="BU6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BU6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>W</v>
       </c>
-      <c r="BV6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BV6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>T</v>
       </c>
-      <c r="BW6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BW6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>F</v>
       </c>
-      <c r="BX6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BX6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>S</v>
       </c>
-      <c r="BY6" s="43" t="str">
-        <f t="shared" si="16"/>
+      <c r="BY6" s="39" t="str">
+        <f t="shared" si="31"/>
         <v>S</v>
       </c>
+      <c r="BZ6" s="39" t="str">
+        <f>LEFT(TEXT(BZ5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="CA6" s="39" t="str">
+        <f t="shared" ref="CA6:CF6" si="32">LEFT(TEXT(CA5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="CB6" s="39" t="str">
+        <f t="shared" si="32"/>
+        <v>W</v>
+      </c>
+      <c r="CC6" s="39" t="str">
+        <f t="shared" si="32"/>
+        <v>T</v>
+      </c>
+      <c r="CD6" s="39" t="str">
+        <f t="shared" si="32"/>
+        <v>F</v>
+      </c>
+      <c r="CE6" s="39" t="str">
+        <f t="shared" si="32"/>
+        <v>S</v>
+      </c>
+      <c r="CF6" s="39" t="str">
+        <f t="shared" si="32"/>
+        <v>S</v>
+      </c>
+      <c r="CG6" s="39" t="str">
+        <f>LEFT(TEXT(CG5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="CH6" s="39" t="str">
+        <f t="shared" ref="CH6:CM6" si="33">LEFT(TEXT(CH5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="CI6" s="39" t="str">
+        <f t="shared" si="33"/>
+        <v>W</v>
+      </c>
+      <c r="CJ6" s="39" t="str">
+        <f t="shared" si="33"/>
+        <v>T</v>
+      </c>
+      <c r="CK6" s="39" t="str">
+        <f t="shared" si="33"/>
+        <v>F</v>
+      </c>
+      <c r="CL6" s="39" t="str">
+        <f t="shared" si="33"/>
+        <v>S</v>
+      </c>
+      <c r="CM6" s="39" t="str">
+        <f t="shared" si="33"/>
+        <v>S</v>
+      </c>
+      <c r="CN6" s="39" t="str">
+        <f>LEFT(TEXT(CN5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="CO6" s="39" t="str">
+        <f t="shared" ref="CO6:CT6" si="34">LEFT(TEXT(CO5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="CP6" s="39" t="str">
+        <f t="shared" si="34"/>
+        <v>W</v>
+      </c>
+      <c r="CQ6" s="39" t="str">
+        <f t="shared" si="34"/>
+        <v>T</v>
+      </c>
+      <c r="CR6" s="39" t="str">
+        <f t="shared" si="34"/>
+        <v>F</v>
+      </c>
+      <c r="CS6" s="39" t="str">
+        <f t="shared" si="34"/>
+        <v>S</v>
+      </c>
+      <c r="CT6" s="39" t="str">
+        <f t="shared" si="34"/>
+        <v>S</v>
+      </c>
     </row>
-    <row r="7" spans="1:77" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:98" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
@@ -3057,2138 +3229,2620 @@
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="44"/>
-      <c r="AK7" s="44"/>
-      <c r="AL7" s="44"/>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="44"/>
-      <c r="AO7" s="44"/>
-      <c r="AP7" s="44"/>
-      <c r="AQ7" s="44"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="44"/>
-      <c r="AV7" s="44"/>
-      <c r="AW7" s="44"/>
-      <c r="AX7" s="44"/>
-      <c r="AY7" s="44"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="44"/>
-      <c r="BB7" s="44"/>
-      <c r="BC7" s="44"/>
-      <c r="BD7" s="44"/>
-      <c r="BE7" s="44"/>
-      <c r="BF7" s="44"/>
-      <c r="BG7" s="44"/>
-      <c r="BH7" s="44"/>
-      <c r="BI7" s="44"/>
-      <c r="BJ7" s="44"/>
-      <c r="BK7" s="44"/>
-      <c r="BL7" s="44"/>
-      <c r="BM7" s="44"/>
-      <c r="BN7" s="44"/>
-      <c r="BO7" s="44"/>
-      <c r="BP7" s="44"/>
-      <c r="BQ7" s="44"/>
-      <c r="BR7" s="44"/>
-      <c r="BS7" s="44"/>
-      <c r="BT7" s="44"/>
-      <c r="BU7" s="44"/>
-      <c r="BV7" s="44"/>
-      <c r="BW7" s="44"/>
-      <c r="BX7" s="44"/>
-      <c r="BY7" s="44"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="40"/>
+      <c r="AS7" s="40"/>
+      <c r="AT7" s="40"/>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="40"/>
+      <c r="AW7" s="40"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="40"/>
+      <c r="BC7" s="40"/>
+      <c r="BD7" s="40"/>
+      <c r="BE7" s="40"/>
+      <c r="BF7" s="40"/>
+      <c r="BG7" s="40"/>
+      <c r="BH7" s="40"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="40"/>
+      <c r="BL7" s="40"/>
+      <c r="BM7" s="40"/>
+      <c r="BN7" s="40"/>
+      <c r="BO7" s="40"/>
+      <c r="BP7" s="40"/>
+      <c r="BQ7" s="40"/>
+      <c r="BR7" s="40"/>
+      <c r="BS7" s="40"/>
+      <c r="BT7" s="40"/>
+      <c r="BU7" s="40"/>
+      <c r="BV7" s="40"/>
+      <c r="BW7" s="40"/>
+      <c r="BX7" s="40"/>
+      <c r="BY7" s="40"/>
+      <c r="BZ7" s="40"/>
+      <c r="CA7" s="40"/>
+      <c r="CB7" s="40"/>
+      <c r="CC7" s="40"/>
+      <c r="CD7" s="40"/>
+      <c r="CE7" s="40"/>
+      <c r="CF7" s="40"/>
+      <c r="CG7" s="40"/>
+      <c r="CH7" s="40"/>
+      <c r="CI7" s="40"/>
+      <c r="CJ7" s="40"/>
+      <c r="CK7" s="40"/>
+      <c r="CL7" s="40"/>
+      <c r="CM7" s="40"/>
+      <c r="CN7" s="40"/>
+      <c r="CO7" s="40"/>
+      <c r="CP7" s="40"/>
+      <c r="CQ7" s="40"/>
+      <c r="CR7" s="40"/>
+      <c r="CS7" s="40"/>
+      <c r="CT7" s="40"/>
     </row>
-    <row r="8" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49" t="str">
-        <f t="shared" ref="G8:G30" si="17">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45" t="str">
+        <f t="shared" ref="G8:G30" si="35">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="44"/>
-      <c r="AN8" s="44"/>
-      <c r="AO8" s="44"/>
-      <c r="AP8" s="44"/>
-      <c r="AQ8" s="44"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="44"/>
-      <c r="AT8" s="44"/>
-      <c r="AU8" s="44"/>
-      <c r="AV8" s="44"/>
-      <c r="AW8" s="44"/>
-      <c r="AX8" s="44"/>
-      <c r="AY8" s="44"/>
-      <c r="AZ8" s="44"/>
-      <c r="BA8" s="44"/>
-      <c r="BB8" s="44"/>
-      <c r="BC8" s="44"/>
-      <c r="BD8" s="44"/>
-      <c r="BE8" s="44"/>
-      <c r="BF8" s="44"/>
-      <c r="BG8" s="44"/>
-      <c r="BH8" s="44"/>
-      <c r="BI8" s="44"/>
-      <c r="BJ8" s="44"/>
-      <c r="BK8" s="44"/>
-      <c r="BL8" s="44"/>
-      <c r="BM8" s="44"/>
-      <c r="BN8" s="44"/>
-      <c r="BO8" s="44"/>
-      <c r="BP8" s="44"/>
-      <c r="BQ8" s="44"/>
-      <c r="BR8" s="44"/>
-      <c r="BS8" s="44"/>
-      <c r="BT8" s="44"/>
-      <c r="BU8" s="44"/>
-      <c r="BV8" s="44"/>
-      <c r="BW8" s="44"/>
-      <c r="BX8" s="44"/>
-      <c r="BY8" s="44"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="40"/>
+      <c r="AV8" s="40"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="40"/>
+      <c r="AZ8" s="40"/>
+      <c r="BA8" s="40"/>
+      <c r="BB8" s="40"/>
+      <c r="BC8" s="40"/>
+      <c r="BD8" s="40"/>
+      <c r="BE8" s="40"/>
+      <c r="BF8" s="40"/>
+      <c r="BG8" s="40"/>
+      <c r="BH8" s="40"/>
+      <c r="BI8" s="40"/>
+      <c r="BJ8" s="40"/>
+      <c r="BK8" s="40"/>
+      <c r="BL8" s="40"/>
+      <c r="BM8" s="40"/>
+      <c r="BN8" s="40"/>
+      <c r="BO8" s="40"/>
+      <c r="BP8" s="40"/>
+      <c r="BQ8" s="40"/>
+      <c r="BR8" s="40"/>
+      <c r="BS8" s="40"/>
+      <c r="BT8" s="40"/>
+      <c r="BU8" s="40"/>
+      <c r="BV8" s="40"/>
+      <c r="BW8" s="40"/>
+      <c r="BX8" s="40"/>
+      <c r="BY8" s="40"/>
+      <c r="BZ8" s="40"/>
+      <c r="CA8" s="40"/>
+      <c r="CB8" s="40"/>
+      <c r="CC8" s="40"/>
+      <c r="CD8" s="40"/>
+      <c r="CE8" s="40"/>
+      <c r="CF8" s="40"/>
+      <c r="CG8" s="40"/>
+      <c r="CH8" s="40"/>
+      <c r="CI8" s="40"/>
+      <c r="CJ8" s="40"/>
+      <c r="CK8" s="40"/>
+      <c r="CL8" s="40"/>
+      <c r="CM8" s="40"/>
+      <c r="CN8" s="40"/>
+      <c r="CO8" s="40"/>
+      <c r="CP8" s="40"/>
+      <c r="CQ8" s="40"/>
+      <c r="CR8" s="40"/>
+      <c r="CS8" s="40"/>
+      <c r="CT8" s="40"/>
     </row>
-    <row r="9" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="47">
         <v>1</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="48">
         <f>Project_Start</f>
         <v>44720</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="48">
         <f>D9+5</f>
         <v>44725</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49">
-        <f t="shared" si="17"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45">
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="44"/>
-      <c r="AI9" s="44"/>
-      <c r="AJ9" s="44"/>
-      <c r="AK9" s="44"/>
-      <c r="AL9" s="44"/>
-      <c r="AM9" s="44"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="44"/>
-      <c r="AP9" s="44"/>
-      <c r="AQ9" s="44"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="44"/>
-      <c r="AT9" s="44"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="44"/>
-      <c r="AW9" s="44"/>
-      <c r="AX9" s="44"/>
-      <c r="AY9" s="44"/>
-      <c r="AZ9" s="44"/>
-      <c r="BA9" s="44"/>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="44"/>
-      <c r="BD9" s="44"/>
-      <c r="BE9" s="44"/>
-      <c r="BF9" s="44"/>
-      <c r="BG9" s="44"/>
-      <c r="BH9" s="44"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="44"/>
-      <c r="BK9" s="44"/>
-      <c r="BL9" s="44"/>
-      <c r="BM9" s="44"/>
-      <c r="BN9" s="44"/>
-      <c r="BO9" s="44"/>
-      <c r="BP9" s="44"/>
-      <c r="BQ9" s="44"/>
-      <c r="BR9" s="44"/>
-      <c r="BS9" s="44"/>
-      <c r="BT9" s="44"/>
-      <c r="BU9" s="44"/>
-      <c r="BV9" s="44"/>
-      <c r="BW9" s="44"/>
-      <c r="BX9" s="44"/>
-      <c r="BY9" s="44"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="40"/>
+      <c r="AP9" s="40"/>
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="40"/>
+      <c r="AS9" s="40"/>
+      <c r="AT9" s="40"/>
+      <c r="AU9" s="40"/>
+      <c r="AV9" s="40"/>
+      <c r="AW9" s="40"/>
+      <c r="AX9" s="40"/>
+      <c r="AY9" s="40"/>
+      <c r="AZ9" s="40"/>
+      <c r="BA9" s="40"/>
+      <c r="BB9" s="40"/>
+      <c r="BC9" s="40"/>
+      <c r="BD9" s="40"/>
+      <c r="BE9" s="40"/>
+      <c r="BF9" s="40"/>
+      <c r="BG9" s="40"/>
+      <c r="BH9" s="40"/>
+      <c r="BI9" s="40"/>
+      <c r="BJ9" s="40"/>
+      <c r="BK9" s="40"/>
+      <c r="BL9" s="40"/>
+      <c r="BM9" s="40"/>
+      <c r="BN9" s="40"/>
+      <c r="BO9" s="40"/>
+      <c r="BP9" s="40"/>
+      <c r="BQ9" s="40"/>
+      <c r="BR9" s="40"/>
+      <c r="BS9" s="40"/>
+      <c r="BT9" s="40"/>
+      <c r="BU9" s="40"/>
+      <c r="BV9" s="40"/>
+      <c r="BW9" s="40"/>
+      <c r="BX9" s="40"/>
+      <c r="BY9" s="40"/>
+      <c r="BZ9" s="40"/>
+      <c r="CA9" s="40"/>
+      <c r="CB9" s="40"/>
+      <c r="CC9" s="40"/>
+      <c r="CD9" s="40"/>
+      <c r="CE9" s="40"/>
+      <c r="CF9" s="40"/>
+      <c r="CG9" s="40"/>
+      <c r="CH9" s="40"/>
+      <c r="CI9" s="40"/>
+      <c r="CJ9" s="40"/>
+      <c r="CK9" s="40"/>
+      <c r="CL9" s="40"/>
+      <c r="CM9" s="40"/>
+      <c r="CN9" s="40"/>
+      <c r="CO9" s="40"/>
+      <c r="CP9" s="40"/>
+      <c r="CQ9" s="40"/>
+      <c r="CR9" s="40"/>
+      <c r="CS9" s="40"/>
+      <c r="CT9" s="40"/>
     </row>
-    <row r="10" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="47">
         <v>1</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="48">
         <f>E9</f>
         <v>44725</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="48">
         <f>D10+3</f>
         <v>44728</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49">
-        <f t="shared" si="17"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45">
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="44"/>
-      <c r="BB10" s="44"/>
-      <c r="BC10" s="44"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="44"/>
-      <c r="BF10" s="44"/>
-      <c r="BG10" s="44"/>
-      <c r="BH10" s="44"/>
-      <c r="BI10" s="44"/>
-      <c r="BJ10" s="44"/>
-      <c r="BK10" s="44"/>
-      <c r="BL10" s="44"/>
-      <c r="BM10" s="44"/>
-      <c r="BN10" s="44"/>
-      <c r="BO10" s="44"/>
-      <c r="BP10" s="44"/>
-      <c r="BQ10" s="44"/>
-      <c r="BR10" s="44"/>
-      <c r="BS10" s="44"/>
-      <c r="BT10" s="44"/>
-      <c r="BU10" s="44"/>
-      <c r="BV10" s="44"/>
-      <c r="BW10" s="44"/>
-      <c r="BX10" s="44"/>
-      <c r="BY10" s="44"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="40"/>
+      <c r="AU10" s="40"/>
+      <c r="AV10" s="40"/>
+      <c r="AW10" s="40"/>
+      <c r="AX10" s="40"/>
+      <c r="AY10" s="40"/>
+      <c r="AZ10" s="40"/>
+      <c r="BA10" s="40"/>
+      <c r="BB10" s="40"/>
+      <c r="BC10" s="40"/>
+      <c r="BD10" s="40"/>
+      <c r="BE10" s="40"/>
+      <c r="BF10" s="40"/>
+      <c r="BG10" s="40"/>
+      <c r="BH10" s="40"/>
+      <c r="BI10" s="40"/>
+      <c r="BJ10" s="40"/>
+      <c r="BK10" s="40"/>
+      <c r="BL10" s="40"/>
+      <c r="BM10" s="40"/>
+      <c r="BN10" s="40"/>
+      <c r="BO10" s="40"/>
+      <c r="BP10" s="40"/>
+      <c r="BQ10" s="40"/>
+      <c r="BR10" s="40"/>
+      <c r="BS10" s="40"/>
+      <c r="BT10" s="40"/>
+      <c r="BU10" s="40"/>
+      <c r="BV10" s="40"/>
+      <c r="BW10" s="40"/>
+      <c r="BX10" s="40"/>
+      <c r="BY10" s="40"/>
+      <c r="BZ10" s="40"/>
+      <c r="CA10" s="40"/>
+      <c r="CB10" s="40"/>
+      <c r="CC10" s="40"/>
+      <c r="CD10" s="40"/>
+      <c r="CE10" s="40"/>
+      <c r="CF10" s="40"/>
+      <c r="CG10" s="40"/>
+      <c r="CH10" s="40"/>
+      <c r="CI10" s="40"/>
+      <c r="CJ10" s="40"/>
+      <c r="CK10" s="40"/>
+      <c r="CL10" s="40"/>
+      <c r="CM10" s="40"/>
+      <c r="CN10" s="40"/>
+      <c r="CO10" s="40"/>
+      <c r="CP10" s="40"/>
+      <c r="CQ10" s="40"/>
+      <c r="CR10" s="40"/>
+      <c r="CS10" s="40"/>
+      <c r="CT10" s="40"/>
     </row>
-    <row r="11" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49" t="str">
-        <f t="shared" si="17"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="44"/>
-      <c r="AJ11" s="44"/>
-      <c r="AK11" s="44"/>
-      <c r="AL11" s="44"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="44"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="44"/>
-      <c r="AT11" s="44"/>
-      <c r="AU11" s="44"/>
-      <c r="AV11" s="44"/>
-      <c r="AW11" s="44"/>
-      <c r="AX11" s="44"/>
-      <c r="AY11" s="44"/>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="44"/>
-      <c r="BN11" s="44"/>
-      <c r="BO11" s="44"/>
-      <c r="BP11" s="44"/>
-      <c r="BQ11" s="44"/>
-      <c r="BR11" s="44"/>
-      <c r="BS11" s="44"/>
-      <c r="BT11" s="44"/>
-      <c r="BU11" s="44"/>
-      <c r="BV11" s="44"/>
-      <c r="BW11" s="44"/>
-      <c r="BX11" s="44"/>
-      <c r="BY11" s="44"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
+      <c r="AR11" s="40"/>
+      <c r="AS11" s="40"/>
+      <c r="AT11" s="40"/>
+      <c r="AU11" s="40"/>
+      <c r="AV11" s="40"/>
+      <c r="AW11" s="40"/>
+      <c r="AX11" s="40"/>
+      <c r="AY11" s="40"/>
+      <c r="AZ11" s="40"/>
+      <c r="BA11" s="40"/>
+      <c r="BB11" s="40"/>
+      <c r="BC11" s="40"/>
+      <c r="BD11" s="40"/>
+      <c r="BE11" s="40"/>
+      <c r="BF11" s="40"/>
+      <c r="BG11" s="40"/>
+      <c r="BH11" s="40"/>
+      <c r="BI11" s="40"/>
+      <c r="BJ11" s="40"/>
+      <c r="BK11" s="40"/>
+      <c r="BL11" s="40"/>
+      <c r="BM11" s="40"/>
+      <c r="BN11" s="40"/>
+      <c r="BO11" s="40"/>
+      <c r="BP11" s="40"/>
+      <c r="BQ11" s="40"/>
+      <c r="BR11" s="40"/>
+      <c r="BS11" s="40"/>
+      <c r="BT11" s="40"/>
+      <c r="BU11" s="40"/>
+      <c r="BV11" s="40"/>
+      <c r="BW11" s="40"/>
+      <c r="BX11" s="40"/>
+      <c r="BY11" s="40"/>
+      <c r="BZ11" s="40"/>
+      <c r="CA11" s="40"/>
+      <c r="CB11" s="40"/>
+      <c r="CC11" s="40"/>
+      <c r="CD11" s="40"/>
+      <c r="CE11" s="40"/>
+      <c r="CF11" s="40"/>
+      <c r="CG11" s="40"/>
+      <c r="CH11" s="40"/>
+      <c r="CI11" s="40"/>
+      <c r="CJ11" s="40"/>
+      <c r="CK11" s="40"/>
+      <c r="CL11" s="40"/>
+      <c r="CM11" s="40"/>
+      <c r="CN11" s="40"/>
+      <c r="CO11" s="40"/>
+      <c r="CP11" s="40"/>
+      <c r="CQ11" s="40"/>
+      <c r="CR11" s="40"/>
+      <c r="CS11" s="40"/>
+      <c r="CT11" s="40"/>
     </row>
-    <row r="12" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="55">
         <v>0.1</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="56">
         <f>E10</f>
         <v>44728</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="56">
         <f>D12+4</f>
         <v>44732</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49">
-        <f t="shared" si="17"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45">
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
-      <c r="BM12" s="44"/>
-      <c r="BN12" s="44"/>
-      <c r="BO12" s="44"/>
-      <c r="BP12" s="44"/>
-      <c r="BQ12" s="44"/>
-      <c r="BR12" s="44"/>
-      <c r="BS12" s="44"/>
-      <c r="BT12" s="44"/>
-      <c r="BU12" s="44"/>
-      <c r="BV12" s="44"/>
-      <c r="BW12" s="44"/>
-      <c r="BX12" s="44"/>
-      <c r="BY12" s="44"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="40"/>
+      <c r="AS12" s="40"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+      <c r="AZ12" s="40"/>
+      <c r="BA12" s="40"/>
+      <c r="BB12" s="40"/>
+      <c r="BC12" s="40"/>
+      <c r="BD12" s="40"/>
+      <c r="BE12" s="40"/>
+      <c r="BF12" s="40"/>
+      <c r="BG12" s="40"/>
+      <c r="BH12" s="40"/>
+      <c r="BI12" s="40"/>
+      <c r="BJ12" s="40"/>
+      <c r="BK12" s="40"/>
+      <c r="BL12" s="40"/>
+      <c r="BM12" s="40"/>
+      <c r="BN12" s="40"/>
+      <c r="BO12" s="40"/>
+      <c r="BP12" s="40"/>
+      <c r="BQ12" s="40"/>
+      <c r="BR12" s="40"/>
+      <c r="BS12" s="40"/>
+      <c r="BT12" s="40"/>
+      <c r="BU12" s="40"/>
+      <c r="BV12" s="40"/>
+      <c r="BW12" s="40"/>
+      <c r="BX12" s="40"/>
+      <c r="BY12" s="40"/>
+      <c r="BZ12" s="40"/>
+      <c r="CA12" s="40"/>
+      <c r="CB12" s="40"/>
+      <c r="CC12" s="40"/>
+      <c r="CD12" s="40"/>
+      <c r="CE12" s="40"/>
+      <c r="CF12" s="40"/>
+      <c r="CG12" s="40"/>
+      <c r="CH12" s="40"/>
+      <c r="CI12" s="40"/>
+      <c r="CJ12" s="40"/>
+      <c r="CK12" s="40"/>
+      <c r="CL12" s="40"/>
+      <c r="CM12" s="40"/>
+      <c r="CN12" s="40"/>
+      <c r="CO12" s="40"/>
+      <c r="CP12" s="40"/>
+      <c r="CQ12" s="40"/>
+      <c r="CR12" s="40"/>
+      <c r="CS12" s="40"/>
+      <c r="CT12" s="40"/>
     </row>
-    <row r="13" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="59">
+      <c r="C13" s="55">
         <v>0.1</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="56">
         <f>D12+2</f>
         <v>44730</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="56">
         <f>D13+5</f>
         <v>44735</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49">
-        <f t="shared" si="17"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45">
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="44"/>
-      <c r="AK13" s="44"/>
-      <c r="AL13" s="44"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
-      <c r="AZ13" s="44"/>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44"/>
-      <c r="BE13" s="44"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="44"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="44"/>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44"/>
-      <c r="BM13" s="44"/>
-      <c r="BN13" s="44"/>
-      <c r="BO13" s="44"/>
-      <c r="BP13" s="44"/>
-      <c r="BQ13" s="44"/>
-      <c r="BR13" s="44"/>
-      <c r="BS13" s="44"/>
-      <c r="BT13" s="44"/>
-      <c r="BU13" s="44"/>
-      <c r="BV13" s="44"/>
-      <c r="BW13" s="44"/>
-      <c r="BX13" s="44"/>
-      <c r="BY13" s="44"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="40"/>
+      <c r="AS13" s="40"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="40"/>
+      <c r="BA13" s="40"/>
+      <c r="BB13" s="40"/>
+      <c r="BC13" s="40"/>
+      <c r="BD13" s="40"/>
+      <c r="BE13" s="40"/>
+      <c r="BF13" s="40"/>
+      <c r="BG13" s="40"/>
+      <c r="BH13" s="40"/>
+      <c r="BI13" s="40"/>
+      <c r="BJ13" s="40"/>
+      <c r="BK13" s="40"/>
+      <c r="BL13" s="40"/>
+      <c r="BM13" s="40"/>
+      <c r="BN13" s="40"/>
+      <c r="BO13" s="40"/>
+      <c r="BP13" s="40"/>
+      <c r="BQ13" s="40"/>
+      <c r="BR13" s="40"/>
+      <c r="BS13" s="40"/>
+      <c r="BT13" s="40"/>
+      <c r="BU13" s="40"/>
+      <c r="BV13" s="40"/>
+      <c r="BW13" s="40"/>
+      <c r="BX13" s="40"/>
+      <c r="BY13" s="40"/>
+      <c r="BZ13" s="40"/>
+      <c r="CA13" s="40"/>
+      <c r="CB13" s="40"/>
+      <c r="CC13" s="40"/>
+      <c r="CD13" s="40"/>
+      <c r="CE13" s="40"/>
+      <c r="CF13" s="40"/>
+      <c r="CG13" s="40"/>
+      <c r="CH13" s="40"/>
+      <c r="CI13" s="40"/>
+      <c r="CJ13" s="40"/>
+      <c r="CK13" s="40"/>
+      <c r="CL13" s="40"/>
+      <c r="CM13" s="40"/>
+      <c r="CN13" s="40"/>
+      <c r="CO13" s="40"/>
+      <c r="CP13" s="40"/>
+      <c r="CQ13" s="40"/>
+      <c r="CR13" s="40"/>
+      <c r="CS13" s="40"/>
+      <c r="CT13" s="40"/>
     </row>
-    <row r="14" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60">
+      <c r="C14" s="55"/>
+      <c r="D14" s="56">
         <f>E13</f>
         <v>44735</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="56">
         <f>D14+3</f>
         <v>44738</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49">
-        <f t="shared" si="17"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45">
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
-      <c r="BB14" s="44"/>
-      <c r="BC14" s="44"/>
-      <c r="BD14" s="44"/>
-      <c r="BE14" s="44"/>
-      <c r="BF14" s="44"/>
-      <c r="BG14" s="44"/>
-      <c r="BH14" s="44"/>
-      <c r="BI14" s="44"/>
-      <c r="BJ14" s="44"/>
-      <c r="BK14" s="44"/>
-      <c r="BL14" s="44"/>
-      <c r="BM14" s="44"/>
-      <c r="BN14" s="44"/>
-      <c r="BO14" s="44"/>
-      <c r="BP14" s="44"/>
-      <c r="BQ14" s="44"/>
-      <c r="BR14" s="44"/>
-      <c r="BS14" s="44"/>
-      <c r="BT14" s="44"/>
-      <c r="BU14" s="44"/>
-      <c r="BV14" s="44"/>
-      <c r="BW14" s="44"/>
-      <c r="BX14" s="44"/>
-      <c r="BY14" s="44"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="40"/>
+      <c r="BA14" s="40"/>
+      <c r="BB14" s="40"/>
+      <c r="BC14" s="40"/>
+      <c r="BD14" s="40"/>
+      <c r="BE14" s="40"/>
+      <c r="BF14" s="40"/>
+      <c r="BG14" s="40"/>
+      <c r="BH14" s="40"/>
+      <c r="BI14" s="40"/>
+      <c r="BJ14" s="40"/>
+      <c r="BK14" s="40"/>
+      <c r="BL14" s="40"/>
+      <c r="BM14" s="40"/>
+      <c r="BN14" s="40"/>
+      <c r="BO14" s="40"/>
+      <c r="BP14" s="40"/>
+      <c r="BQ14" s="40"/>
+      <c r="BR14" s="40"/>
+      <c r="BS14" s="40"/>
+      <c r="BT14" s="40"/>
+      <c r="BU14" s="40"/>
+      <c r="BV14" s="40"/>
+      <c r="BW14" s="40"/>
+      <c r="BX14" s="40"/>
+      <c r="BY14" s="40"/>
+      <c r="BZ14" s="40"/>
+      <c r="CA14" s="40"/>
+      <c r="CB14" s="40"/>
+      <c r="CC14" s="40"/>
+      <c r="CD14" s="40"/>
+      <c r="CE14" s="40"/>
+      <c r="CF14" s="40"/>
+      <c r="CG14" s="40"/>
+      <c r="CH14" s="40"/>
+      <c r="CI14" s="40"/>
+      <c r="CJ14" s="40"/>
+      <c r="CK14" s="40"/>
+      <c r="CL14" s="40"/>
+      <c r="CM14" s="40"/>
+      <c r="CN14" s="40"/>
+      <c r="CO14" s="40"/>
+      <c r="CP14" s="40"/>
+      <c r="CQ14" s="40"/>
+      <c r="CR14" s="40"/>
+      <c r="CS14" s="40"/>
+      <c r="CT14" s="40"/>
     </row>
-    <row r="15" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60">
+      <c r="C15" s="55"/>
+      <c r="D15" s="56">
         <f>D14</f>
         <v>44735</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="56">
         <f>D15+5</f>
         <v>44740</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49">
-        <f t="shared" si="17"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45">
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="44"/>
-      <c r="BB15" s="44"/>
-      <c r="BC15" s="44"/>
-      <c r="BD15" s="44"/>
-      <c r="BE15" s="44"/>
-      <c r="BF15" s="44"/>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="44"/>
-      <c r="BI15" s="44"/>
-      <c r="BJ15" s="44"/>
-      <c r="BK15" s="44"/>
-      <c r="BL15" s="44"/>
-      <c r="BM15" s="44"/>
-      <c r="BN15" s="44"/>
-      <c r="BO15" s="44"/>
-      <c r="BP15" s="44"/>
-      <c r="BQ15" s="44"/>
-      <c r="BR15" s="44"/>
-      <c r="BS15" s="44"/>
-      <c r="BT15" s="44"/>
-      <c r="BU15" s="44"/>
-      <c r="BV15" s="44"/>
-      <c r="BW15" s="44"/>
-      <c r="BX15" s="44"/>
-      <c r="BY15" s="44"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="40"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="40"/>
+      <c r="BB15" s="40"/>
+      <c r="BC15" s="40"/>
+      <c r="BD15" s="40"/>
+      <c r="BE15" s="40"/>
+      <c r="BF15" s="40"/>
+      <c r="BG15" s="40"/>
+      <c r="BH15" s="40"/>
+      <c r="BI15" s="40"/>
+      <c r="BJ15" s="40"/>
+      <c r="BK15" s="40"/>
+      <c r="BL15" s="40"/>
+      <c r="BM15" s="40"/>
+      <c r="BN15" s="40"/>
+      <c r="BO15" s="40"/>
+      <c r="BP15" s="40"/>
+      <c r="BQ15" s="40"/>
+      <c r="BR15" s="40"/>
+      <c r="BS15" s="40"/>
+      <c r="BT15" s="40"/>
+      <c r="BU15" s="40"/>
+      <c r="BV15" s="40"/>
+      <c r="BW15" s="40"/>
+      <c r="BX15" s="40"/>
+      <c r="BY15" s="40"/>
+      <c r="BZ15" s="40"/>
+      <c r="CA15" s="40"/>
+      <c r="CB15" s="40"/>
+      <c r="CC15" s="40"/>
+      <c r="CD15" s="40"/>
+      <c r="CE15" s="40"/>
+      <c r="CF15" s="40"/>
+      <c r="CG15" s="40"/>
+      <c r="CH15" s="40"/>
+      <c r="CI15" s="40"/>
+      <c r="CJ15" s="40"/>
+      <c r="CK15" s="40"/>
+      <c r="CL15" s="40"/>
+      <c r="CM15" s="40"/>
+      <c r="CN15" s="40"/>
+      <c r="CO15" s="40"/>
+      <c r="CP15" s="40"/>
+      <c r="CQ15" s="40"/>
+      <c r="CR15" s="40"/>
+      <c r="CS15" s="40"/>
+      <c r="CT15" s="40"/>
     </row>
-    <row r="16" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60">
+      <c r="C16" s="55"/>
+      <c r="D16" s="56">
         <f>D15</f>
         <v>44735</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="56">
         <f>D16+7</f>
         <v>44742</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49">
-        <f t="shared" si="17"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45">
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
-      <c r="AH16" s="44"/>
-      <c r="AI16" s="44"/>
-      <c r="AJ16" s="44"/>
-      <c r="AK16" s="44"/>
-      <c r="AL16" s="44"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="44"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="44"/>
-      <c r="AY16" s="44"/>
-      <c r="AZ16" s="44"/>
-      <c r="BA16" s="44"/>
-      <c r="BB16" s="44"/>
-      <c r="BC16" s="44"/>
-      <c r="BD16" s="44"/>
-      <c r="BE16" s="44"/>
-      <c r="BF16" s="44"/>
-      <c r="BG16" s="44"/>
-      <c r="BH16" s="44"/>
-      <c r="BI16" s="44"/>
-      <c r="BJ16" s="44"/>
-      <c r="BK16" s="44"/>
-      <c r="BL16" s="44"/>
-      <c r="BM16" s="44"/>
-      <c r="BN16" s="44"/>
-      <c r="BO16" s="44"/>
-      <c r="BP16" s="44"/>
-      <c r="BQ16" s="44"/>
-      <c r="BR16" s="44"/>
-      <c r="BS16" s="44"/>
-      <c r="BT16" s="44"/>
-      <c r="BU16" s="44"/>
-      <c r="BV16" s="44"/>
-      <c r="BW16" s="44"/>
-      <c r="BX16" s="44"/>
-      <c r="BY16" s="44"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="40"/>
+      <c r="AU16" s="40"/>
+      <c r="AV16" s="40"/>
+      <c r="AW16" s="40"/>
+      <c r="AX16" s="40"/>
+      <c r="AY16" s="40"/>
+      <c r="AZ16" s="40"/>
+      <c r="BA16" s="40"/>
+      <c r="BB16" s="40"/>
+      <c r="BC16" s="40"/>
+      <c r="BD16" s="40"/>
+      <c r="BE16" s="40"/>
+      <c r="BF16" s="40"/>
+      <c r="BG16" s="40"/>
+      <c r="BH16" s="40"/>
+      <c r="BI16" s="40"/>
+      <c r="BJ16" s="40"/>
+      <c r="BK16" s="40"/>
+      <c r="BL16" s="40"/>
+      <c r="BM16" s="40"/>
+      <c r="BN16" s="40"/>
+      <c r="BO16" s="40"/>
+      <c r="BP16" s="40"/>
+      <c r="BQ16" s="40"/>
+      <c r="BR16" s="40"/>
+      <c r="BS16" s="40"/>
+      <c r="BT16" s="40"/>
+      <c r="BU16" s="40"/>
+      <c r="BV16" s="40"/>
+      <c r="BW16" s="40"/>
+      <c r="BX16" s="40"/>
+      <c r="BY16" s="40"/>
+      <c r="BZ16" s="40"/>
+      <c r="CA16" s="40"/>
+      <c r="CB16" s="40"/>
+      <c r="CC16" s="40"/>
+      <c r="CD16" s="40"/>
+      <c r="CE16" s="40"/>
+      <c r="CF16" s="40"/>
+      <c r="CG16" s="40"/>
+      <c r="CH16" s="40"/>
+      <c r="CI16" s="40"/>
+      <c r="CJ16" s="40"/>
+      <c r="CK16" s="40"/>
+      <c r="CL16" s="40"/>
+      <c r="CM16" s="40"/>
+      <c r="CN16" s="40"/>
+      <c r="CO16" s="40"/>
+      <c r="CP16" s="40"/>
+      <c r="CQ16" s="40"/>
+      <c r="CR16" s="40"/>
+      <c r="CS16" s="40"/>
+      <c r="CT16" s="40"/>
     </row>
-    <row r="17" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49" t="str">
-        <f t="shared" si="17"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="44"/>
-      <c r="AI17" s="44"/>
-      <c r="AJ17" s="44"/>
-      <c r="AK17" s="44"/>
-      <c r="AL17" s="44"/>
-      <c r="AM17" s="44"/>
-      <c r="AN17" s="44"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="44"/>
-      <c r="BA17" s="44"/>
-      <c r="BB17" s="44"/>
-      <c r="BC17" s="44"/>
-      <c r="BD17" s="44"/>
-      <c r="BE17" s="44"/>
-      <c r="BF17" s="44"/>
-      <c r="BG17" s="44"/>
-      <c r="BH17" s="44"/>
-      <c r="BI17" s="44"/>
-      <c r="BJ17" s="44"/>
-      <c r="BK17" s="44"/>
-      <c r="BL17" s="44"/>
-      <c r="BM17" s="44"/>
-      <c r="BN17" s="44"/>
-      <c r="BO17" s="44"/>
-      <c r="BP17" s="44"/>
-      <c r="BQ17" s="44"/>
-      <c r="BR17" s="44"/>
-      <c r="BS17" s="44"/>
-      <c r="BT17" s="44"/>
-      <c r="BU17" s="44"/>
-      <c r="BV17" s="44"/>
-      <c r="BW17" s="44"/>
-      <c r="BX17" s="44"/>
-      <c r="BY17" s="44"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="40"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="40"/>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="40"/>
+      <c r="AU17" s="40"/>
+      <c r="AV17" s="40"/>
+      <c r="AW17" s="40"/>
+      <c r="AX17" s="40"/>
+      <c r="AY17" s="40"/>
+      <c r="AZ17" s="40"/>
+      <c r="BA17" s="40"/>
+      <c r="BB17" s="40"/>
+      <c r="BC17" s="40"/>
+      <c r="BD17" s="40"/>
+      <c r="BE17" s="40"/>
+      <c r="BF17" s="40"/>
+      <c r="BG17" s="40"/>
+      <c r="BH17" s="40"/>
+      <c r="BI17" s="40"/>
+      <c r="BJ17" s="40"/>
+      <c r="BK17" s="40"/>
+      <c r="BL17" s="40"/>
+      <c r="BM17" s="40"/>
+      <c r="BN17" s="40"/>
+      <c r="BO17" s="40"/>
+      <c r="BP17" s="40"/>
+      <c r="BQ17" s="40"/>
+      <c r="BR17" s="40"/>
+      <c r="BS17" s="40"/>
+      <c r="BT17" s="40"/>
+      <c r="BU17" s="40"/>
+      <c r="BV17" s="40"/>
+      <c r="BW17" s="40"/>
+      <c r="BX17" s="40"/>
+      <c r="BY17" s="40"/>
+      <c r="BZ17" s="40"/>
+      <c r="CA17" s="40"/>
+      <c r="CB17" s="40"/>
+      <c r="CC17" s="40"/>
+      <c r="CD17" s="40"/>
+      <c r="CE17" s="40"/>
+      <c r="CF17" s="40"/>
+      <c r="CG17" s="40"/>
+      <c r="CH17" s="40"/>
+      <c r="CI17" s="40"/>
+      <c r="CJ17" s="40"/>
+      <c r="CK17" s="40"/>
+      <c r="CL17" s="40"/>
+      <c r="CM17" s="40"/>
+      <c r="CN17" s="40"/>
+      <c r="CO17" s="40"/>
+      <c r="CP17" s="40"/>
+      <c r="CQ17" s="40"/>
+      <c r="CR17" s="40"/>
+      <c r="CS17" s="40"/>
+      <c r="CT17" s="40"/>
     </row>
-    <row r="18" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67">
-        <f>D9+15</f>
-        <v>44735</v>
-      </c>
-      <c r="E18" s="67">
+      <c r="C18" s="62"/>
+      <c r="D18" s="63">
+        <f>D24</f>
+        <v>44732</v>
+      </c>
+      <c r="E18" s="63">
         <f>D18+5</f>
-        <v>44740</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49">
-        <f t="shared" si="17"/>
+        <v>44737</v>
+      </c>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45">
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
-      <c r="AM18" s="44"/>
-      <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="44"/>
-      <c r="AY18" s="44"/>
-      <c r="AZ18" s="44"/>
-      <c r="BA18" s="44"/>
-      <c r="BB18" s="44"/>
-      <c r="BC18" s="44"/>
-      <c r="BD18" s="44"/>
-      <c r="BE18" s="44"/>
-      <c r="BF18" s="44"/>
-      <c r="BG18" s="44"/>
-      <c r="BH18" s="44"/>
-      <c r="BI18" s="44"/>
-      <c r="BJ18" s="44"/>
-      <c r="BK18" s="44"/>
-      <c r="BL18" s="44"/>
-      <c r="BM18" s="44"/>
-      <c r="BN18" s="44"/>
-      <c r="BO18" s="44"/>
-      <c r="BP18" s="44"/>
-      <c r="BQ18" s="44"/>
-      <c r="BR18" s="44"/>
-      <c r="BS18" s="44"/>
-      <c r="BT18" s="44"/>
-      <c r="BU18" s="44"/>
-      <c r="BV18" s="44"/>
-      <c r="BW18" s="44"/>
-      <c r="BX18" s="44"/>
-      <c r="BY18" s="44"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="40"/>
+      <c r="AK18" s="40"/>
+      <c r="AL18" s="40"/>
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="40"/>
+      <c r="AO18" s="40"/>
+      <c r="AP18" s="40"/>
+      <c r="AQ18" s="40"/>
+      <c r="AR18" s="40"/>
+      <c r="AS18" s="40"/>
+      <c r="AT18" s="40"/>
+      <c r="AU18" s="40"/>
+      <c r="AV18" s="40"/>
+      <c r="AW18" s="40"/>
+      <c r="AX18" s="40"/>
+      <c r="AY18" s="40"/>
+      <c r="AZ18" s="40"/>
+      <c r="BA18" s="40"/>
+      <c r="BB18" s="40"/>
+      <c r="BC18" s="40"/>
+      <c r="BD18" s="40"/>
+      <c r="BE18" s="40"/>
+      <c r="BF18" s="40"/>
+      <c r="BG18" s="40"/>
+      <c r="BH18" s="40"/>
+      <c r="BI18" s="40"/>
+      <c r="BJ18" s="40"/>
+      <c r="BK18" s="40"/>
+      <c r="BL18" s="40"/>
+      <c r="BM18" s="40"/>
+      <c r="BN18" s="40"/>
+      <c r="BO18" s="40"/>
+      <c r="BP18" s="40"/>
+      <c r="BQ18" s="40"/>
+      <c r="BR18" s="40"/>
+      <c r="BS18" s="40"/>
+      <c r="BT18" s="40"/>
+      <c r="BU18" s="40"/>
+      <c r="BV18" s="40"/>
+      <c r="BW18" s="40"/>
+      <c r="BX18" s="40"/>
+      <c r="BY18" s="40"/>
+      <c r="BZ18" s="40"/>
+      <c r="CA18" s="40"/>
+      <c r="CB18" s="40"/>
+      <c r="CC18" s="40"/>
+      <c r="CD18" s="40"/>
+      <c r="CE18" s="40"/>
+      <c r="CF18" s="40"/>
+      <c r="CG18" s="40"/>
+      <c r="CH18" s="40"/>
+      <c r="CI18" s="40"/>
+      <c r="CJ18" s="40"/>
+      <c r="CK18" s="40"/>
+      <c r="CL18" s="40"/>
+      <c r="CM18" s="40"/>
+      <c r="CN18" s="40"/>
+      <c r="CO18" s="40"/>
+      <c r="CP18" s="40"/>
+      <c r="CQ18" s="40"/>
+      <c r="CR18" s="40"/>
+      <c r="CS18" s="40"/>
+      <c r="CT18" s="40"/>
     </row>
-    <row r="19" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67">
-        <f>E18+1</f>
-        <v>44741</v>
-      </c>
-      <c r="E19" s="67">
+      <c r="C19" s="62"/>
+      <c r="D19" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="63" t="e">
         <f>D19+3</f>
-        <v>44744</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44"/>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="44"/>
-      <c r="AL19" s="44"/>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-      <c r="AX19" s="44"/>
-      <c r="AY19" s="44"/>
-      <c r="AZ19" s="44"/>
-      <c r="BA19" s="44"/>
-      <c r="BB19" s="44"/>
-      <c r="BC19" s="44"/>
-      <c r="BD19" s="44"/>
-      <c r="BE19" s="44"/>
-      <c r="BF19" s="44"/>
-      <c r="BG19" s="44"/>
-      <c r="BH19" s="44"/>
-      <c r="BI19" s="44"/>
-      <c r="BJ19" s="44"/>
-      <c r="BK19" s="44"/>
-      <c r="BL19" s="44"/>
-      <c r="BM19" s="44"/>
-      <c r="BN19" s="44"/>
-      <c r="BO19" s="44"/>
-      <c r="BP19" s="44"/>
-      <c r="BQ19" s="44"/>
-      <c r="BR19" s="44"/>
-      <c r="BS19" s="44"/>
-      <c r="BT19" s="44"/>
-      <c r="BU19" s="44"/>
-      <c r="BV19" s="44"/>
-      <c r="BW19" s="44"/>
-      <c r="BX19" s="44"/>
-      <c r="BY19" s="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
+      <c r="AM19" s="40"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="40"/>
+      <c r="AU19" s="40"/>
+      <c r="AV19" s="40"/>
+      <c r="AW19" s="40"/>
+      <c r="AX19" s="40"/>
+      <c r="AY19" s="40"/>
+      <c r="AZ19" s="40"/>
+      <c r="BA19" s="40"/>
+      <c r="BB19" s="40"/>
+      <c r="BC19" s="40"/>
+      <c r="BD19" s="40"/>
+      <c r="BE19" s="40"/>
+      <c r="BF19" s="40"/>
+      <c r="BG19" s="40"/>
+      <c r="BH19" s="40"/>
+      <c r="BI19" s="40"/>
+      <c r="BJ19" s="40"/>
+      <c r="BK19" s="40"/>
+      <c r="BL19" s="40"/>
+      <c r="BM19" s="40"/>
+      <c r="BN19" s="40"/>
+      <c r="BO19" s="40"/>
+      <c r="BP19" s="40"/>
+      <c r="BQ19" s="40"/>
+      <c r="BR19" s="40"/>
+      <c r="BS19" s="40"/>
+      <c r="BT19" s="40"/>
+      <c r="BU19" s="40"/>
+      <c r="BV19" s="40"/>
+      <c r="BW19" s="40"/>
+      <c r="BX19" s="40"/>
+      <c r="BY19" s="40"/>
+      <c r="BZ19" s="40"/>
+      <c r="CA19" s="40"/>
+      <c r="CB19" s="40"/>
+      <c r="CC19" s="40"/>
+      <c r="CD19" s="40"/>
+      <c r="CE19" s="40"/>
+      <c r="CF19" s="40"/>
+      <c r="CG19" s="40"/>
+      <c r="CH19" s="40"/>
+      <c r="CI19" s="40"/>
+      <c r="CJ19" s="40"/>
+      <c r="CK19" s="40"/>
+      <c r="CL19" s="40"/>
+      <c r="CM19" s="40"/>
+      <c r="CN19" s="40"/>
+      <c r="CO19" s="40"/>
+      <c r="CP19" s="40"/>
+      <c r="CQ19" s="40"/>
+      <c r="CR19" s="40"/>
+      <c r="CS19" s="40"/>
+      <c r="CT19" s="40"/>
     </row>
-    <row r="20" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67">
+      <c r="C20" s="62"/>
+      <c r="D20" s="63" t="e">
         <f>E19</f>
-        <v>44744</v>
-      </c>
-      <c r="E20" s="67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" s="63" t="e">
         <f>D20+6</f>
-        <v>44750</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="44"/>
-      <c r="AJ20" s="44"/>
-      <c r="AK20" s="44"/>
-      <c r="AL20" s="44"/>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="44"/>
-      <c r="AW20" s="44"/>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="44"/>
-      <c r="BA20" s="44"/>
-      <c r="BB20" s="44"/>
-      <c r="BC20" s="44"/>
-      <c r="BD20" s="44"/>
-      <c r="BE20" s="44"/>
-      <c r="BF20" s="44"/>
-      <c r="BG20" s="44"/>
-      <c r="BH20" s="44"/>
-      <c r="BI20" s="44"/>
-      <c r="BJ20" s="44"/>
-      <c r="BK20" s="44"/>
-      <c r="BL20" s="44"/>
-      <c r="BM20" s="44"/>
-      <c r="BN20" s="44"/>
-      <c r="BO20" s="44"/>
-      <c r="BP20" s="44"/>
-      <c r="BQ20" s="44"/>
-      <c r="BR20" s="44"/>
-      <c r="BS20" s="44"/>
-      <c r="BT20" s="44"/>
-      <c r="BU20" s="44"/>
-      <c r="BV20" s="44"/>
-      <c r="BW20" s="44"/>
-      <c r="BX20" s="44"/>
-      <c r="BY20" s="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="40"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="40"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="40"/>
+      <c r="AU20" s="40"/>
+      <c r="AV20" s="40"/>
+      <c r="AW20" s="40"/>
+      <c r="AX20" s="40"/>
+      <c r="AY20" s="40"/>
+      <c r="AZ20" s="40"/>
+      <c r="BA20" s="40"/>
+      <c r="BB20" s="40"/>
+      <c r="BC20" s="40"/>
+      <c r="BD20" s="40"/>
+      <c r="BE20" s="40"/>
+      <c r="BF20" s="40"/>
+      <c r="BG20" s="40"/>
+      <c r="BH20" s="40"/>
+      <c r="BI20" s="40"/>
+      <c r="BJ20" s="40"/>
+      <c r="BK20" s="40"/>
+      <c r="BL20" s="40"/>
+      <c r="BM20" s="40"/>
+      <c r="BN20" s="40"/>
+      <c r="BO20" s="40"/>
+      <c r="BP20" s="40"/>
+      <c r="BQ20" s="40"/>
+      <c r="BR20" s="40"/>
+      <c r="BS20" s="40"/>
+      <c r="BT20" s="40"/>
+      <c r="BU20" s="40"/>
+      <c r="BV20" s="40"/>
+      <c r="BW20" s="40"/>
+      <c r="BX20" s="40"/>
+      <c r="BY20" s="40"/>
+      <c r="BZ20" s="40"/>
+      <c r="CA20" s="40"/>
+      <c r="CB20" s="40"/>
+      <c r="CC20" s="40"/>
+      <c r="CD20" s="40"/>
+      <c r="CE20" s="40"/>
+      <c r="CF20" s="40"/>
+      <c r="CG20" s="40"/>
+      <c r="CH20" s="40"/>
+      <c r="CI20" s="40"/>
+      <c r="CJ20" s="40"/>
+      <c r="CK20" s="40"/>
+      <c r="CL20" s="40"/>
+      <c r="CM20" s="40"/>
+      <c r="CN20" s="40"/>
+      <c r="CO20" s="40"/>
+      <c r="CP20" s="40"/>
+      <c r="CQ20" s="40"/>
+      <c r="CR20" s="40"/>
+      <c r="CS20" s="40"/>
+      <c r="CT20" s="40"/>
     </row>
-    <row r="21" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67">
+      <c r="C21" s="62"/>
+      <c r="D21" s="63" t="e">
         <f>E20</f>
-        <v>44750</v>
-      </c>
-      <c r="E21" s="67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="63" t="e">
         <f>D21+5</f>
-        <v>44755</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="44"/>
-      <c r="AL21" s="44"/>
-      <c r="AM21" s="44"/>
-      <c r="AN21" s="44"/>
-      <c r="AO21" s="44"/>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="44"/>
-      <c r="AR21" s="44"/>
-      <c r="AS21" s="44"/>
-      <c r="AT21" s="44"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="44"/>
-      <c r="AW21" s="44"/>
-      <c r="AX21" s="44"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="44"/>
-      <c r="BA21" s="44"/>
-      <c r="BB21" s="44"/>
-      <c r="BC21" s="44"/>
-      <c r="BD21" s="44"/>
-      <c r="BE21" s="44"/>
-      <c r="BF21" s="44"/>
-      <c r="BG21" s="44"/>
-      <c r="BH21" s="44"/>
-      <c r="BI21" s="44"/>
-      <c r="BJ21" s="44"/>
-      <c r="BK21" s="44"/>
-      <c r="BL21" s="44"/>
-      <c r="BM21" s="44"/>
-      <c r="BN21" s="44"/>
-      <c r="BO21" s="44"/>
-      <c r="BP21" s="44"/>
-      <c r="BQ21" s="44"/>
-      <c r="BR21" s="44"/>
-      <c r="BS21" s="44"/>
-      <c r="BT21" s="44"/>
-      <c r="BU21" s="44"/>
-      <c r="BV21" s="44"/>
-      <c r="BW21" s="44"/>
-      <c r="BX21" s="44"/>
-      <c r="BY21" s="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+      <c r="AL21" s="40"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="40"/>
+      <c r="AO21" s="40"/>
+      <c r="AP21" s="40"/>
+      <c r="AQ21" s="40"/>
+      <c r="AR21" s="40"/>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="40"/>
+      <c r="AU21" s="40"/>
+      <c r="AV21" s="40"/>
+      <c r="AW21" s="40"/>
+      <c r="AX21" s="40"/>
+      <c r="AY21" s="40"/>
+      <c r="AZ21" s="40"/>
+      <c r="BA21" s="40"/>
+      <c r="BB21" s="40"/>
+      <c r="BC21" s="40"/>
+      <c r="BD21" s="40"/>
+      <c r="BE21" s="40"/>
+      <c r="BF21" s="40"/>
+      <c r="BG21" s="40"/>
+      <c r="BH21" s="40"/>
+      <c r="BI21" s="40"/>
+      <c r="BJ21" s="40"/>
+      <c r="BK21" s="40"/>
+      <c r="BL21" s="40"/>
+      <c r="BM21" s="40"/>
+      <c r="BN21" s="40"/>
+      <c r="BO21" s="40"/>
+      <c r="BP21" s="40"/>
+      <c r="BQ21" s="40"/>
+      <c r="BR21" s="40"/>
+      <c r="BS21" s="40"/>
+      <c r="BT21" s="40"/>
+      <c r="BU21" s="40"/>
+      <c r="BV21" s="40"/>
+      <c r="BW21" s="40"/>
+      <c r="BX21" s="40"/>
+      <c r="BY21" s="40"/>
+      <c r="BZ21" s="40"/>
+      <c r="CA21" s="40"/>
+      <c r="CB21" s="40"/>
+      <c r="CC21" s="40"/>
+      <c r="CD21" s="40"/>
+      <c r="CE21" s="40"/>
+      <c r="CF21" s="40"/>
+      <c r="CG21" s="40"/>
+      <c r="CH21" s="40"/>
+      <c r="CI21" s="40"/>
+      <c r="CJ21" s="40"/>
+      <c r="CK21" s="40"/>
+      <c r="CL21" s="40"/>
+      <c r="CM21" s="40"/>
+      <c r="CN21" s="40"/>
+      <c r="CO21" s="40"/>
+      <c r="CP21" s="40"/>
+      <c r="CQ21" s="40"/>
+      <c r="CR21" s="40"/>
+      <c r="CS21" s="40"/>
+      <c r="CT21" s="40"/>
     </row>
-    <row r="22" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67">
+      <c r="C22" s="62"/>
+      <c r="D22" s="63" t="e">
         <f>D20</f>
-        <v>44744</v>
-      </c>
-      <c r="E22" s="67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E22" s="63" t="e">
         <f>D22+5</f>
-        <v>44749</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="44"/>
-      <c r="AM22" s="44"/>
-      <c r="AN22" s="44"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="44"/>
-      <c r="BA22" s="44"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="44"/>
-      <c r="BD22" s="44"/>
-      <c r="BE22" s="44"/>
-      <c r="BF22" s="44"/>
-      <c r="BG22" s="44"/>
-      <c r="BH22" s="44"/>
-      <c r="BI22" s="44"/>
-      <c r="BJ22" s="44"/>
-      <c r="BK22" s="44"/>
-      <c r="BL22" s="44"/>
-      <c r="BM22" s="44"/>
-      <c r="BN22" s="44"/>
-      <c r="BO22" s="44"/>
-      <c r="BP22" s="44"/>
-      <c r="BQ22" s="44"/>
-      <c r="BR22" s="44"/>
-      <c r="BS22" s="44"/>
-      <c r="BT22" s="44"/>
-      <c r="BU22" s="44"/>
-      <c r="BV22" s="44"/>
-      <c r="BW22" s="44"/>
-      <c r="BX22" s="44"/>
-      <c r="BY22" s="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40"/>
+      <c r="AK22" s="40"/>
+      <c r="AL22" s="40"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="40"/>
+      <c r="AO22" s="40"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="40"/>
+      <c r="AR22" s="40"/>
+      <c r="AS22" s="40"/>
+      <c r="AT22" s="40"/>
+      <c r="AU22" s="40"/>
+      <c r="AV22" s="40"/>
+      <c r="AW22" s="40"/>
+      <c r="AX22" s="40"/>
+      <c r="AY22" s="40"/>
+      <c r="AZ22" s="40"/>
+      <c r="BA22" s="40"/>
+      <c r="BB22" s="40"/>
+      <c r="BC22" s="40"/>
+      <c r="BD22" s="40"/>
+      <c r="BE22" s="40"/>
+      <c r="BF22" s="40"/>
+      <c r="BG22" s="40"/>
+      <c r="BH22" s="40"/>
+      <c r="BI22" s="40"/>
+      <c r="BJ22" s="40"/>
+      <c r="BK22" s="40"/>
+      <c r="BL22" s="40"/>
+      <c r="BM22" s="40"/>
+      <c r="BN22" s="40"/>
+      <c r="BO22" s="40"/>
+      <c r="BP22" s="40"/>
+      <c r="BQ22" s="40"/>
+      <c r="BR22" s="40"/>
+      <c r="BS22" s="40"/>
+      <c r="BT22" s="40"/>
+      <c r="BU22" s="40"/>
+      <c r="BV22" s="40"/>
+      <c r="BW22" s="40"/>
+      <c r="BX22" s="40"/>
+      <c r="BY22" s="40"/>
+      <c r="BZ22" s="40"/>
+      <c r="CA22" s="40"/>
+      <c r="CB22" s="40"/>
+      <c r="CC22" s="40"/>
+      <c r="CD22" s="40"/>
+      <c r="CE22" s="40"/>
+      <c r="CF22" s="40"/>
+      <c r="CG22" s="40"/>
+      <c r="CH22" s="40"/>
+      <c r="CI22" s="40"/>
+      <c r="CJ22" s="40"/>
+      <c r="CK22" s="40"/>
+      <c r="CL22" s="40"/>
+      <c r="CM22" s="40"/>
+      <c r="CN22" s="40"/>
+      <c r="CO22" s="40"/>
+      <c r="CP22" s="40"/>
+      <c r="CQ22" s="40"/>
+      <c r="CR22" s="40"/>
+      <c r="CS22" s="40"/>
+      <c r="CT22" s="40"/>
     </row>
-    <row r="23" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49" t="str">
-        <f t="shared" si="17"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
-      <c r="AK23" s="44"/>
-      <c r="AL23" s="44"/>
-      <c r="AM23" s="44"/>
-      <c r="AN23" s="44"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="44"/>
-      <c r="BD23" s="44"/>
-      <c r="BE23" s="44"/>
-      <c r="BF23" s="44"/>
-      <c r="BG23" s="44"/>
-      <c r="BH23" s="44"/>
-      <c r="BI23" s="44"/>
-      <c r="BJ23" s="44"/>
-      <c r="BK23" s="44"/>
-      <c r="BL23" s="44"/>
-      <c r="BM23" s="44"/>
-      <c r="BN23" s="44"/>
-      <c r="BO23" s="44"/>
-      <c r="BP23" s="44"/>
-      <c r="BQ23" s="44"/>
-      <c r="BR23" s="44"/>
-      <c r="BS23" s="44"/>
-      <c r="BT23" s="44"/>
-      <c r="BU23" s="44"/>
-      <c r="BV23" s="44"/>
-      <c r="BW23" s="44"/>
-      <c r="BX23" s="44"/>
-      <c r="BY23" s="44"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="40"/>
+      <c r="AO23" s="40"/>
+      <c r="AP23" s="40"/>
+      <c r="AQ23" s="40"/>
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+      <c r="AT23" s="40"/>
+      <c r="AU23" s="40"/>
+      <c r="AV23" s="40"/>
+      <c r="AW23" s="40"/>
+      <c r="AX23" s="40"/>
+      <c r="AY23" s="40"/>
+      <c r="AZ23" s="40"/>
+      <c r="BA23" s="40"/>
+      <c r="BB23" s="40"/>
+      <c r="BC23" s="40"/>
+      <c r="BD23" s="40"/>
+      <c r="BE23" s="40"/>
+      <c r="BF23" s="40"/>
+      <c r="BG23" s="40"/>
+      <c r="BH23" s="40"/>
+      <c r="BI23" s="40"/>
+      <c r="BJ23" s="40"/>
+      <c r="BK23" s="40"/>
+      <c r="BL23" s="40"/>
+      <c r="BM23" s="40"/>
+      <c r="BN23" s="40"/>
+      <c r="BO23" s="40"/>
+      <c r="BP23" s="40"/>
+      <c r="BQ23" s="40"/>
+      <c r="BR23" s="40"/>
+      <c r="BS23" s="40"/>
+      <c r="BT23" s="40"/>
+      <c r="BU23" s="40"/>
+      <c r="BV23" s="40"/>
+      <c r="BW23" s="40"/>
+      <c r="BX23" s="40"/>
+      <c r="BY23" s="40"/>
+      <c r="BZ23" s="40"/>
+      <c r="CA23" s="40"/>
+      <c r="CB23" s="40"/>
+      <c r="CC23" s="40"/>
+      <c r="CD23" s="40"/>
+      <c r="CE23" s="40"/>
+      <c r="CF23" s="40"/>
+      <c r="CG23" s="40"/>
+      <c r="CH23" s="40"/>
+      <c r="CI23" s="40"/>
+      <c r="CJ23" s="40"/>
+      <c r="CK23" s="40"/>
+      <c r="CL23" s="40"/>
+      <c r="CM23" s="40"/>
+      <c r="CN23" s="40"/>
+      <c r="CO23" s="40"/>
+      <c r="CP23" s="40"/>
+      <c r="CQ23" s="40"/>
+      <c r="CR23" s="40"/>
+      <c r="CS23" s="40"/>
+      <c r="CT23" s="40"/>
     </row>
-    <row r="24" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74">
+      <c r="C24" s="69"/>
+      <c r="D24" s="70">
         <f>E12</f>
         <v>44732</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="70">
         <f>E12+14</f>
         <v>44746</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49">
-        <f t="shared" si="17"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45">
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
-      <c r="AK24" s="44"/>
-      <c r="AL24" s="44"/>
-      <c r="AM24" s="44"/>
-      <c r="AN24" s="44"/>
-      <c r="AO24" s="44"/>
-      <c r="AP24" s="44"/>
-      <c r="AQ24" s="44"/>
-      <c r="AR24" s="44"/>
-      <c r="AS24" s="44"/>
-      <c r="AT24" s="44"/>
-      <c r="AU24" s="44"/>
-      <c r="AV24" s="44"/>
-      <c r="AW24" s="44"/>
-      <c r="AX24" s="44"/>
-      <c r="AY24" s="44"/>
-      <c r="AZ24" s="44"/>
-      <c r="BA24" s="44"/>
-      <c r="BB24" s="44"/>
-      <c r="BC24" s="44"/>
-      <c r="BD24" s="44"/>
-      <c r="BE24" s="44"/>
-      <c r="BF24" s="44"/>
-      <c r="BG24" s="44"/>
-      <c r="BH24" s="44"/>
-      <c r="BI24" s="44"/>
-      <c r="BJ24" s="44"/>
-      <c r="BK24" s="44"/>
-      <c r="BL24" s="44"/>
-      <c r="BM24" s="44"/>
-      <c r="BN24" s="44"/>
-      <c r="BO24" s="44"/>
-      <c r="BP24" s="44"/>
-      <c r="BQ24" s="44"/>
-      <c r="BR24" s="44"/>
-      <c r="BS24" s="44"/>
-      <c r="BT24" s="44"/>
-      <c r="BU24" s="44"/>
-      <c r="BV24" s="44"/>
-      <c r="BW24" s="44"/>
-      <c r="BX24" s="44"/>
-      <c r="BY24" s="44"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
+      <c r="AN24" s="40"/>
+      <c r="AO24" s="40"/>
+      <c r="AP24" s="40"/>
+      <c r="AQ24" s="40"/>
+      <c r="AR24" s="40"/>
+      <c r="AS24" s="40"/>
+      <c r="AT24" s="40"/>
+      <c r="AU24" s="40"/>
+      <c r="AV24" s="40"/>
+      <c r="AW24" s="40"/>
+      <c r="AX24" s="40"/>
+      <c r="AY24" s="40"/>
+      <c r="AZ24" s="40"/>
+      <c r="BA24" s="40"/>
+      <c r="BB24" s="40"/>
+      <c r="BC24" s="40"/>
+      <c r="BD24" s="40"/>
+      <c r="BE24" s="40"/>
+      <c r="BF24" s="40"/>
+      <c r="BG24" s="40"/>
+      <c r="BH24" s="40"/>
+      <c r="BI24" s="40"/>
+      <c r="BJ24" s="40"/>
+      <c r="BK24" s="40"/>
+      <c r="BL24" s="40"/>
+      <c r="BM24" s="40"/>
+      <c r="BN24" s="40"/>
+      <c r="BO24" s="40"/>
+      <c r="BP24" s="40"/>
+      <c r="BQ24" s="40"/>
+      <c r="BR24" s="40"/>
+      <c r="BS24" s="40"/>
+      <c r="BT24" s="40"/>
+      <c r="BU24" s="40"/>
+      <c r="BV24" s="40"/>
+      <c r="BW24" s="40"/>
+      <c r="BX24" s="40"/>
+      <c r="BY24" s="40"/>
+      <c r="BZ24" s="40"/>
+      <c r="CA24" s="40"/>
+      <c r="CB24" s="40"/>
+      <c r="CC24" s="40"/>
+      <c r="CD24" s="40"/>
+      <c r="CE24" s="40"/>
+      <c r="CF24" s="40"/>
+      <c r="CG24" s="40"/>
+      <c r="CH24" s="40"/>
+      <c r="CI24" s="40"/>
+      <c r="CJ24" s="40"/>
+      <c r="CK24" s="40"/>
+      <c r="CL24" s="40"/>
+      <c r="CM24" s="40"/>
+      <c r="CN24" s="40"/>
+      <c r="CO24" s="40"/>
+      <c r="CP24" s="40"/>
+      <c r="CQ24" s="40"/>
+      <c r="CR24" s="40"/>
+      <c r="CS24" s="40"/>
+      <c r="CT24" s="40"/>
     </row>
-    <row r="25" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74">
+      <c r="C25" s="69"/>
+      <c r="D25" s="70">
         <f>E24</f>
         <v>44746</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="70">
         <f>D25+7</f>
         <v>44753</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49">
-        <f t="shared" si="17"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45">
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
-      <c r="AK25" s="44"/>
-      <c r="AL25" s="44"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="44"/>
-      <c r="BE25" s="44"/>
-      <c r="BF25" s="44"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="44"/>
-      <c r="BI25" s="44"/>
-      <c r="BJ25" s="44"/>
-      <c r="BK25" s="44"/>
-      <c r="BL25" s="44"/>
-      <c r="BM25" s="44"/>
-      <c r="BN25" s="44"/>
-      <c r="BO25" s="44"/>
-      <c r="BP25" s="44"/>
-      <c r="BQ25" s="44"/>
-      <c r="BR25" s="44"/>
-      <c r="BS25" s="44"/>
-      <c r="BT25" s="44"/>
-      <c r="BU25" s="44"/>
-      <c r="BV25" s="44"/>
-      <c r="BW25" s="44"/>
-      <c r="BX25" s="44"/>
-      <c r="BY25" s="44"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="40"/>
+      <c r="AN25" s="40"/>
+      <c r="AO25" s="40"/>
+      <c r="AP25" s="40"/>
+      <c r="AQ25" s="40"/>
+      <c r="AR25" s="40"/>
+      <c r="AS25" s="40"/>
+      <c r="AT25" s="40"/>
+      <c r="AU25" s="40"/>
+      <c r="AV25" s="40"/>
+      <c r="AW25" s="40"/>
+      <c r="AX25" s="40"/>
+      <c r="AY25" s="40"/>
+      <c r="AZ25" s="40"/>
+      <c r="BA25" s="40"/>
+      <c r="BB25" s="40"/>
+      <c r="BC25" s="40"/>
+      <c r="BD25" s="40"/>
+      <c r="BE25" s="40"/>
+      <c r="BF25" s="40"/>
+      <c r="BG25" s="40"/>
+      <c r="BH25" s="40"/>
+      <c r="BI25" s="40"/>
+      <c r="BJ25" s="40"/>
+      <c r="BK25" s="40"/>
+      <c r="BL25" s="40"/>
+      <c r="BM25" s="40"/>
+      <c r="BN25" s="40"/>
+      <c r="BO25" s="40"/>
+      <c r="BP25" s="40"/>
+      <c r="BQ25" s="40"/>
+      <c r="BR25" s="40"/>
+      <c r="BS25" s="40"/>
+      <c r="BT25" s="40"/>
+      <c r="BU25" s="40"/>
+      <c r="BV25" s="40"/>
+      <c r="BW25" s="40"/>
+      <c r="BX25" s="40"/>
+      <c r="BY25" s="40"/>
+      <c r="BZ25" s="40"/>
+      <c r="CA25" s="40"/>
+      <c r="CB25" s="40"/>
+      <c r="CC25" s="40"/>
+      <c r="CD25" s="40"/>
+      <c r="CE25" s="40"/>
+      <c r="CF25" s="40"/>
+      <c r="CG25" s="40"/>
+      <c r="CH25" s="40"/>
+      <c r="CI25" s="40"/>
+      <c r="CJ25" s="40"/>
+      <c r="CK25" s="40"/>
+      <c r="CL25" s="40"/>
+      <c r="CM25" s="40"/>
+      <c r="CN25" s="40"/>
+      <c r="CO25" s="40"/>
+      <c r="CP25" s="40"/>
+      <c r="CQ25" s="40"/>
+      <c r="CR25" s="40"/>
+      <c r="CS25" s="40"/>
+      <c r="CT25" s="40"/>
     </row>
-    <row r="26" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74">
+      <c r="C26" s="69"/>
+      <c r="D26" s="70">
         <f>E25</f>
         <v>44753</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="70">
         <f>D26+14</f>
         <v>44767</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49">
-        <f t="shared" si="17"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45">
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="44"/>
-      <c r="BA26" s="44"/>
-      <c r="BB26" s="44"/>
-      <c r="BC26" s="44"/>
-      <c r="BD26" s="44"/>
-      <c r="BE26" s="44"/>
-      <c r="BF26" s="44"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="44"/>
-      <c r="BI26" s="44"/>
-      <c r="BJ26" s="44"/>
-      <c r="BK26" s="44"/>
-      <c r="BL26" s="44"/>
-      <c r="BM26" s="44"/>
-      <c r="BN26" s="44"/>
-      <c r="BO26" s="44"/>
-      <c r="BP26" s="44"/>
-      <c r="BQ26" s="44"/>
-      <c r="BR26" s="44"/>
-      <c r="BS26" s="44"/>
-      <c r="BT26" s="44"/>
-      <c r="BU26" s="44"/>
-      <c r="BV26" s="44"/>
-      <c r="BW26" s="44"/>
-      <c r="BX26" s="44"/>
-      <c r="BY26" s="44"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="40"/>
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="40"/>
+      <c r="AT26" s="40"/>
+      <c r="AU26" s="40"/>
+      <c r="AV26" s="40"/>
+      <c r="AW26" s="40"/>
+      <c r="AX26" s="40"/>
+      <c r="AY26" s="40"/>
+      <c r="AZ26" s="40"/>
+      <c r="BA26" s="40"/>
+      <c r="BB26" s="40"/>
+      <c r="BC26" s="40"/>
+      <c r="BD26" s="40"/>
+      <c r="BE26" s="40"/>
+      <c r="BF26" s="40"/>
+      <c r="BG26" s="40"/>
+      <c r="BH26" s="40"/>
+      <c r="BI26" s="40"/>
+      <c r="BJ26" s="40"/>
+      <c r="BK26" s="40"/>
+      <c r="BL26" s="40"/>
+      <c r="BM26" s="40"/>
+      <c r="BN26" s="40"/>
+      <c r="BO26" s="40"/>
+      <c r="BP26" s="40"/>
+      <c r="BQ26" s="40"/>
+      <c r="BR26" s="40"/>
+      <c r="BS26" s="40"/>
+      <c r="BT26" s="40"/>
+      <c r="BU26" s="40"/>
+      <c r="BV26" s="40"/>
+      <c r="BW26" s="40"/>
+      <c r="BX26" s="40"/>
+      <c r="BY26" s="40"/>
+      <c r="BZ26" s="40"/>
+      <c r="CA26" s="40"/>
+      <c r="CB26" s="40"/>
+      <c r="CC26" s="40"/>
+      <c r="CD26" s="40"/>
+      <c r="CE26" s="40"/>
+      <c r="CF26" s="40"/>
+      <c r="CG26" s="40"/>
+      <c r="CH26" s="40"/>
+      <c r="CI26" s="40"/>
+      <c r="CJ26" s="40"/>
+      <c r="CK26" s="40"/>
+      <c r="CL26" s="40"/>
+      <c r="CM26" s="40"/>
+      <c r="CN26" s="40"/>
+      <c r="CO26" s="40"/>
+      <c r="CP26" s="40"/>
+      <c r="CQ26" s="40"/>
+      <c r="CR26" s="40"/>
+      <c r="CS26" s="40"/>
+      <c r="CT26" s="40"/>
     </row>
-    <row r="27" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="74">
+      <c r="C27" s="69"/>
+      <c r="D27" s="70">
         <f>E26</f>
         <v>44767</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="70">
         <f>D27+7</f>
         <v>44774</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49">
-        <f t="shared" si="17"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45">
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44"/>
-      <c r="AV27" s="44"/>
-      <c r="AW27" s="44"/>
-      <c r="AX27" s="44"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="44"/>
-      <c r="BA27" s="44"/>
-      <c r="BB27" s="44"/>
-      <c r="BC27" s="44"/>
-      <c r="BD27" s="44"/>
-      <c r="BE27" s="44"/>
-      <c r="BF27" s="44"/>
-      <c r="BG27" s="44"/>
-      <c r="BH27" s="44"/>
-      <c r="BI27" s="44"/>
-      <c r="BJ27" s="44"/>
-      <c r="BK27" s="44"/>
-      <c r="BL27" s="44"/>
-      <c r="BM27" s="44"/>
-      <c r="BN27" s="44"/>
-      <c r="BO27" s="44"/>
-      <c r="BP27" s="44"/>
-      <c r="BQ27" s="44"/>
-      <c r="BR27" s="44"/>
-      <c r="BS27" s="44"/>
-      <c r="BT27" s="44"/>
-      <c r="BU27" s="44"/>
-      <c r="BV27" s="44"/>
-      <c r="BW27" s="44"/>
-      <c r="BX27" s="44"/>
-      <c r="BY27" s="44"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="40"/>
+      <c r="AQ27" s="40"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="40"/>
+      <c r="AT27" s="40"/>
+      <c r="AU27" s="40"/>
+      <c r="AV27" s="40"/>
+      <c r="AW27" s="40"/>
+      <c r="AX27" s="40"/>
+      <c r="AY27" s="40"/>
+      <c r="AZ27" s="40"/>
+      <c r="BA27" s="40"/>
+      <c r="BB27" s="40"/>
+      <c r="BC27" s="40"/>
+      <c r="BD27" s="40"/>
+      <c r="BE27" s="40"/>
+      <c r="BF27" s="40"/>
+      <c r="BG27" s="40"/>
+      <c r="BH27" s="40"/>
+      <c r="BI27" s="40"/>
+      <c r="BJ27" s="40"/>
+      <c r="BK27" s="40"/>
+      <c r="BL27" s="40"/>
+      <c r="BM27" s="40"/>
+      <c r="BN27" s="40"/>
+      <c r="BO27" s="40"/>
+      <c r="BP27" s="40"/>
+      <c r="BQ27" s="40"/>
+      <c r="BR27" s="40"/>
+      <c r="BS27" s="40"/>
+      <c r="BT27" s="40"/>
+      <c r="BU27" s="40"/>
+      <c r="BV27" s="40"/>
+      <c r="BW27" s="40"/>
+      <c r="BX27" s="40"/>
+      <c r="BY27" s="40"/>
+      <c r="BZ27" s="40"/>
+      <c r="CA27" s="40"/>
+      <c r="CB27" s="40"/>
+      <c r="CC27" s="40"/>
+      <c r="CD27" s="40"/>
+      <c r="CE27" s="40"/>
+      <c r="CF27" s="40"/>
+      <c r="CG27" s="40"/>
+      <c r="CH27" s="40"/>
+      <c r="CI27" s="40"/>
+      <c r="CJ27" s="40"/>
+      <c r="CK27" s="40"/>
+      <c r="CL27" s="40"/>
+      <c r="CM27" s="40"/>
+      <c r="CN27" s="40"/>
+      <c r="CO27" s="40"/>
+      <c r="CP27" s="40"/>
+      <c r="CQ27" s="40"/>
+      <c r="CR27" s="40"/>
+      <c r="CS27" s="40"/>
+      <c r="CT27" s="40"/>
     </row>
-    <row r="28" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74">
+      <c r="C28" s="69"/>
+      <c r="D28" s="70">
         <f>E27</f>
         <v>44774</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="70">
         <f>D28+5</f>
         <v>44779</v>
       </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49">
-        <f t="shared" si="17"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45">
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
-      <c r="AU28" s="44"/>
-      <c r="AV28" s="44"/>
-      <c r="AW28" s="44"/>
-      <c r="AX28" s="44"/>
-      <c r="AY28" s="44"/>
-      <c r="AZ28" s="44"/>
-      <c r="BA28" s="44"/>
-      <c r="BB28" s="44"/>
-      <c r="BC28" s="44"/>
-      <c r="BD28" s="44"/>
-      <c r="BE28" s="44"/>
-      <c r="BF28" s="44"/>
-      <c r="BG28" s="44"/>
-      <c r="BH28" s="44"/>
-      <c r="BI28" s="44"/>
-      <c r="BJ28" s="44"/>
-      <c r="BK28" s="44"/>
-      <c r="BL28" s="44"/>
-      <c r="BM28" s="44"/>
-      <c r="BN28" s="44"/>
-      <c r="BO28" s="44"/>
-      <c r="BP28" s="44"/>
-      <c r="BQ28" s="44"/>
-      <c r="BR28" s="44"/>
-      <c r="BS28" s="44"/>
-      <c r="BT28" s="44"/>
-      <c r="BU28" s="44"/>
-      <c r="BV28" s="44"/>
-      <c r="BW28" s="44"/>
-      <c r="BX28" s="44"/>
-      <c r="BY28" s="44"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="40"/>
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="40"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="40"/>
+      <c r="AU28" s="40"/>
+      <c r="AV28" s="40"/>
+      <c r="AW28" s="40"/>
+      <c r="AX28" s="40"/>
+      <c r="AY28" s="40"/>
+      <c r="AZ28" s="40"/>
+      <c r="BA28" s="40"/>
+      <c r="BB28" s="40"/>
+      <c r="BC28" s="40"/>
+      <c r="BD28" s="40"/>
+      <c r="BE28" s="40"/>
+      <c r="BF28" s="40"/>
+      <c r="BG28" s="40"/>
+      <c r="BH28" s="40"/>
+      <c r="BI28" s="40"/>
+      <c r="BJ28" s="40"/>
+      <c r="BK28" s="40"/>
+      <c r="BL28" s="40"/>
+      <c r="BM28" s="40"/>
+      <c r="BN28" s="40"/>
+      <c r="BO28" s="40"/>
+      <c r="BP28" s="40"/>
+      <c r="BQ28" s="40"/>
+      <c r="BR28" s="40"/>
+      <c r="BS28" s="40"/>
+      <c r="BT28" s="40"/>
+      <c r="BU28" s="40"/>
+      <c r="BV28" s="40"/>
+      <c r="BW28" s="40"/>
+      <c r="BX28" s="40"/>
+      <c r="BY28" s="40"/>
+      <c r="BZ28" s="40"/>
+      <c r="CA28" s="40"/>
+      <c r="CB28" s="40"/>
+      <c r="CC28" s="40"/>
+      <c r="CD28" s="40"/>
+      <c r="CE28" s="40"/>
+      <c r="CF28" s="40"/>
+      <c r="CG28" s="40"/>
+      <c r="CH28" s="40"/>
+      <c r="CI28" s="40"/>
+      <c r="CJ28" s="40"/>
+      <c r="CK28" s="40"/>
+      <c r="CL28" s="40"/>
+      <c r="CM28" s="40"/>
+      <c r="CN28" s="40"/>
+      <c r="CO28" s="40"/>
+      <c r="CP28" s="40"/>
+      <c r="CQ28" s="40"/>
+      <c r="CR28" s="40"/>
+      <c r="CS28" s="40"/>
+      <c r="CT28" s="40"/>
     </row>
-    <row r="29" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74">
+      <c r="C29" s="69"/>
+      <c r="D29" s="70">
         <f>E28</f>
         <v>44779</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="70">
         <f>DATE(2022,8,31)</f>
         <v>44804</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49">
-        <f t="shared" si="17"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45">
+        <f t="shared" si="35"/>
         <v>26</v>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
-      <c r="AU29" s="44"/>
-      <c r="AV29" s="44"/>
-      <c r="AW29" s="44"/>
-      <c r="AX29" s="44"/>
-      <c r="AY29" s="44"/>
-      <c r="AZ29" s="44"/>
-      <c r="BA29" s="44"/>
-      <c r="BB29" s="44"/>
-      <c r="BC29" s="44"/>
-      <c r="BD29" s="44"/>
-      <c r="BE29" s="44"/>
-      <c r="BF29" s="44"/>
-      <c r="BG29" s="44"/>
-      <c r="BH29" s="44"/>
-      <c r="BI29" s="44"/>
-      <c r="BJ29" s="44"/>
-      <c r="BK29" s="44"/>
-      <c r="BL29" s="44"/>
-      <c r="BM29" s="44"/>
-      <c r="BN29" s="44"/>
-      <c r="BO29" s="44"/>
-      <c r="BP29" s="44"/>
-      <c r="BQ29" s="44"/>
-      <c r="BR29" s="44"/>
-      <c r="BS29" s="44"/>
-      <c r="BT29" s="44"/>
-      <c r="BU29" s="44"/>
-      <c r="BV29" s="44"/>
-      <c r="BW29" s="44"/>
-      <c r="BX29" s="44"/>
-      <c r="BY29" s="44"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="40"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="40"/>
+      <c r="AO29" s="40"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="40"/>
+      <c r="AR29" s="40"/>
+      <c r="AS29" s="40"/>
+      <c r="AT29" s="40"/>
+      <c r="AU29" s="40"/>
+      <c r="AV29" s="40"/>
+      <c r="AW29" s="40"/>
+      <c r="AX29" s="40"/>
+      <c r="AY29" s="40"/>
+      <c r="AZ29" s="40"/>
+      <c r="BA29" s="40"/>
+      <c r="BB29" s="40"/>
+      <c r="BC29" s="40"/>
+      <c r="BD29" s="40"/>
+      <c r="BE29" s="40"/>
+      <c r="BF29" s="40"/>
+      <c r="BG29" s="40"/>
+      <c r="BH29" s="40"/>
+      <c r="BI29" s="40"/>
+      <c r="BJ29" s="40"/>
+      <c r="BK29" s="40"/>
+      <c r="BL29" s="40"/>
+      <c r="BM29" s="40"/>
+      <c r="BN29" s="40"/>
+      <c r="BO29" s="40"/>
+      <c r="BP29" s="40"/>
+      <c r="BQ29" s="40"/>
+      <c r="BR29" s="40"/>
+      <c r="BS29" s="40"/>
+      <c r="BT29" s="40"/>
+      <c r="BU29" s="40"/>
+      <c r="BV29" s="40"/>
+      <c r="BW29" s="40"/>
+      <c r="BX29" s="40"/>
+      <c r="BY29" s="40"/>
+      <c r="BZ29" s="40"/>
+      <c r="CA29" s="40"/>
+      <c r="CB29" s="40"/>
+      <c r="CC29" s="40"/>
+      <c r="CD29" s="40"/>
+      <c r="CE29" s="40"/>
+      <c r="CF29" s="40"/>
+      <c r="CG29" s="40"/>
+      <c r="CH29" s="40"/>
+      <c r="CI29" s="40"/>
+      <c r="CJ29" s="40"/>
+      <c r="CK29" s="40"/>
+      <c r="CL29" s="40"/>
+      <c r="CM29" s="40"/>
+      <c r="CN29" s="40"/>
+      <c r="CO29" s="40"/>
+      <c r="CP29" s="40"/>
+      <c r="CQ29" s="40"/>
+      <c r="CR29" s="40"/>
+      <c r="CS29" s="40"/>
+      <c r="CT29" s="40"/>
     </row>
-    <row r="30" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79" t="str">
-        <f t="shared" si="17"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="80"/>
-      <c r="Z30" s="80"/>
-      <c r="AA30" s="80"/>
-      <c r="AB30" s="80"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="80"/>
-      <c r="AE30" s="80"/>
-      <c r="AF30" s="80"/>
-      <c r="AG30" s="80"/>
-      <c r="AH30" s="80"/>
-      <c r="AI30" s="80"/>
-      <c r="AJ30" s="80"/>
-      <c r="AK30" s="80"/>
-      <c r="AL30" s="80"/>
-      <c r="AM30" s="80"/>
-      <c r="AN30" s="80"/>
-      <c r="AO30" s="80"/>
-      <c r="AP30" s="80"/>
-      <c r="AQ30" s="80"/>
-      <c r="AR30" s="80"/>
-      <c r="AS30" s="80"/>
-      <c r="AT30" s="80"/>
-      <c r="AU30" s="80"/>
-      <c r="AV30" s="80"/>
-      <c r="AW30" s="80"/>
-      <c r="AX30" s="80"/>
-      <c r="AY30" s="80"/>
-      <c r="AZ30" s="80"/>
-      <c r="BA30" s="80"/>
-      <c r="BB30" s="80"/>
-      <c r="BC30" s="80"/>
-      <c r="BD30" s="80"/>
-      <c r="BE30" s="80"/>
-      <c r="BF30" s="80"/>
-      <c r="BG30" s="80"/>
-      <c r="BH30" s="80"/>
-      <c r="BI30" s="80"/>
-      <c r="BJ30" s="80"/>
-      <c r="BK30" s="80"/>
-      <c r="BL30" s="80"/>
-      <c r="BM30" s="80"/>
-      <c r="BN30" s="80"/>
-      <c r="BO30" s="80"/>
-      <c r="BP30" s="80"/>
-      <c r="BQ30" s="80"/>
-      <c r="BR30" s="80"/>
-      <c r="BS30" s="80"/>
-      <c r="BT30" s="80"/>
-      <c r="BU30" s="80"/>
-      <c r="BV30" s="80"/>
-      <c r="BW30" s="80"/>
-      <c r="BX30" s="80"/>
-      <c r="BY30" s="80"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76"/>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="76"/>
+      <c r="AD30" s="76"/>
+      <c r="AE30" s="76"/>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="76"/>
+      <c r="AH30" s="76"/>
+      <c r="AI30" s="76"/>
+      <c r="AJ30" s="76"/>
+      <c r="AK30" s="76"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="76"/>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="76"/>
+      <c r="AP30" s="76"/>
+      <c r="AQ30" s="76"/>
+      <c r="AR30" s="76"/>
+      <c r="AS30" s="76"/>
+      <c r="AT30" s="76"/>
+      <c r="AU30" s="76"/>
+      <c r="AV30" s="76"/>
+      <c r="AW30" s="76"/>
+      <c r="AX30" s="76"/>
+      <c r="AY30" s="76"/>
+      <c r="AZ30" s="76"/>
+      <c r="BA30" s="76"/>
+      <c r="BB30" s="76"/>
+      <c r="BC30" s="76"/>
+      <c r="BD30" s="76"/>
+      <c r="BE30" s="76"/>
+      <c r="BF30" s="76"/>
+      <c r="BG30" s="76"/>
+      <c r="BH30" s="76"/>
+      <c r="BI30" s="76"/>
+      <c r="BJ30" s="76"/>
+      <c r="BK30" s="76"/>
+      <c r="BL30" s="76"/>
+      <c r="BM30" s="76"/>
+      <c r="BN30" s="76"/>
+      <c r="BO30" s="76"/>
+      <c r="BP30" s="76"/>
+      <c r="BQ30" s="76"/>
+      <c r="BR30" s="76"/>
+      <c r="BS30" s="76"/>
+      <c r="BT30" s="76"/>
+      <c r="BU30" s="76"/>
+      <c r="BV30" s="76"/>
+      <c r="BW30" s="76"/>
+      <c r="BX30" s="76"/>
+      <c r="BY30" s="76"/>
     </row>
-    <row r="31" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -5253,7 +5907,7 @@
       <c r="BJ31"/>
       <c r="BK31"/>
     </row>
-    <row r="32" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:98" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>12</v>
       </c>
@@ -5388,21 +6042,24 @@
       <c r="BK33"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="BZ4:CF4"/>
+    <mergeCell ref="CG4:CM4"/>
+    <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="BL4:BR4"/>
     <mergeCell ref="BS4:BY4"/>
     <mergeCell ref="AJ4:AP4"/>
     <mergeCell ref="AQ4:AW4"/>
     <mergeCell ref="AX4:BD4"/>
     <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C30">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5416,29 +6073,68 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK30">
-    <cfRule type="expression" dxfId="11" priority="36">
+    <cfRule type="expression" dxfId="14" priority="45">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK30">
-    <cfRule type="expression" dxfId="6" priority="30">
+    <cfRule type="expression" dxfId="13" priority="39">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="40" stopIfTrue="1">
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL5:BY30">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND(TODAY()&gt;=BL$5,TODAY()&lt;BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL7:BY30">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>AND(task_start&lt;=BL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=BL$5,task_start&lt;BM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ5:CF29">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>AND(TODAY()&gt;=BZ$5,TODAY()&lt;CA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ7:CF29">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>AND(task_start&lt;=BZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BZ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BZ$5,task_start&lt;CA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CG5:CM29">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND(TODAY()&gt;=CG$5,TODAY()&lt;CH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CG7:CM29">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>AND(task_start&lt;=CG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CG$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CG$5,task_start&lt;CH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN5:CT29">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND(TODAY()&gt;=CN$5,TODAY()&lt;CO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN7:CT29">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND(task_start&lt;=CN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=CN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=CN$5,task_start&lt;CO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5584,12 +6280,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5881,29 +6588,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5930,13 +6630,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>